--- a/data/trans_orig/P59-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P59-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9558</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4433</v>
+        <v>4381</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18955</v>
+        <v>19522</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02017469034062046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009355899459609338</v>
+        <v>0.009246743614440191</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04000903150331483</v>
+        <v>0.04120565983113455</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>12147</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6076</v>
+        <v>6786</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20022</v>
+        <v>21276</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03960950845071511</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01981126578743576</v>
+        <v>0.02212685219782782</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06528755429537253</v>
+        <v>0.06937389405149832</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -786,19 +786,19 @@
         <v>21706</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14475</v>
+        <v>13571</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33133</v>
+        <v>33307</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02781159903304115</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01854648097215965</v>
+        <v>0.01738850547197469</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04245350277547917</v>
+        <v>0.04267677796210963</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>6810</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2708</v>
+        <v>2678</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14336</v>
+        <v>15711</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01437318003808725</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.005716629029931782</v>
+        <v>0.005652178301269004</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03025977376508279</v>
+        <v>0.03316080319283198</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>11</v>
@@ -836,19 +836,19 @@
         <v>11144</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5934</v>
+        <v>5842</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18544</v>
+        <v>18890</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03633901304310484</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01934894943196442</v>
+        <v>0.01904907521309049</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06046666811103638</v>
+        <v>0.06159421541146058</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -857,19 +857,19 @@
         <v>17954</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10662</v>
+        <v>10900</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30426</v>
+        <v>28088</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02300465063184332</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0136606536478808</v>
+        <v>0.01396640221519269</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03898538279921279</v>
+        <v>0.03598964692201348</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>4114</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>898</v>
+        <v>1560</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10290</v>
+        <v>11000</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.008683761140835156</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001894369356726079</v>
+        <v>0.003292596804290066</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02171819901205463</v>
+        <v>0.0232171445598543</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>13364</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7215</v>
+        <v>7293</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23651</v>
+        <v>22519</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04357788815005854</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02352625518314982</v>
+        <v>0.02377931638165811</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07711901615883673</v>
+        <v>0.07342914621941234</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -928,19 +928,19 @@
         <v>17479</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>10068</v>
+        <v>10300</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28621</v>
+        <v>30881</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02239540281206619</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01290064897910127</v>
+        <v>0.01319777668458243</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03667176117772906</v>
+        <v>0.03956763644912626</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>125676</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>108157</v>
+        <v>108668</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>147164</v>
+        <v>148166</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2652649465518948</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2282876567419049</v>
+        <v>0.2293660535247855</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3106198877657165</v>
+        <v>0.3127338239166577</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -978,19 +978,19 @@
         <v>90488</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>75784</v>
+        <v>75413</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>107891</v>
+        <v>107709</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2950557164298251</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2471097522135435</v>
+        <v>0.2459026957070936</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3518033376113834</v>
+        <v>0.3512094036570959</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>211</v>
@@ -999,19 +999,19 @@
         <v>216164</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>191321</v>
+        <v>193741</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243688</v>
+        <v>242574</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2769712248481912</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2451394169772252</v>
+        <v>0.2482399829716495</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3122373867641538</v>
+        <v>0.3108101099758373</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>327618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>306372</v>
+        <v>306055</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>347319</v>
+        <v>347519</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6915034219285624</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6466602940953926</v>
+        <v>0.6459899774165275</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.733086147142361</v>
+        <v>0.733509201708335</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>174</v>
@@ -1049,19 +1049,19 @@
         <v>179536</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>161090</v>
+        <v>161037</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>195523</v>
+        <v>196992</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5854178739262964</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5252699497361757</v>
+        <v>0.5250965692468695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6375472878423459</v>
+        <v>0.6423377732719184</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>490</v>
@@ -1070,19 +1070,19 @@
         <v>507154</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>480431</v>
+        <v>480809</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>533839</v>
+        <v>534250</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6498171226748581</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.615576057572976</v>
+        <v>0.6160606193410099</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6840079885191475</v>
+        <v>0.6845346106678259</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>8587</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3683</v>
+        <v>3723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17246</v>
+        <v>16688</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02340295293582716</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01003627382532328</v>
+        <v>0.01014731402251061</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04700129856687337</v>
+        <v>0.04547840690385226</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1195,19 +1195,19 @@
         <v>8237</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3445</v>
+        <v>3713</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16552</v>
+        <v>16360</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02214982551311596</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009263582541698165</v>
+        <v>0.009984427273804948</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04451132900529373</v>
+        <v>0.04399481069382487</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1216,19 +1216,19 @@
         <v>16824</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9457</v>
+        <v>9988</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28132</v>
+        <v>28291</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02277220755428821</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01280089119879621</v>
+        <v>0.0135190210774855</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03807850850497889</v>
+        <v>0.03829333797445961</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>7199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2790</v>
+        <v>2960</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14757</v>
+        <v>14247</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01962027378480576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007603946922038486</v>
+        <v>0.008067627561274325</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04021761343462155</v>
+        <v>0.03882608479693376</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1266,19 +1266,19 @@
         <v>8554</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4220</v>
+        <v>4039</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16023</v>
+        <v>16148</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02300298770242041</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01134734918416776</v>
+        <v>0.01086057273328487</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04308930810821215</v>
+        <v>0.04342457489739314</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -1287,19 +1287,19 @@
         <v>15753</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8965</v>
+        <v>8970</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25279</v>
+        <v>25400</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02132291881669466</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01213466008088445</v>
+        <v>0.01214148001668263</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03421595782588039</v>
+        <v>0.03437990427927218</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>10305</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4819</v>
+        <v>4149</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19775</v>
+        <v>19776</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02808534962290272</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01313278022671676</v>
+        <v>0.0113080411833856</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05389230166864312</v>
+        <v>0.05389444095984589</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1337,19 +1337,19 @@
         <v>9883</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5001</v>
+        <v>5011</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17764</v>
+        <v>17306</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02657754114532948</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01344865306561881</v>
+        <v>0.0134747150338069</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0477713651292857</v>
+        <v>0.04653866662122956</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -1358,19 +1358,19 @@
         <v>20189</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12763</v>
+        <v>12353</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31704</v>
+        <v>32634</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02732641384650979</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01727528452371212</v>
+        <v>0.01672083914570723</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04291224428795234</v>
+        <v>0.04417131435604771</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>99168</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84576</v>
+        <v>82707</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>118154</v>
+        <v>117844</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2702611159746564</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2304935487895669</v>
+        <v>0.2254000858174646</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3220034418282698</v>
+        <v>0.3211576086272879</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -1408,19 +1408,19 @@
         <v>139710</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>121038</v>
+        <v>121548</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>157726</v>
+        <v>158370</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3757014935994266</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3254898443097292</v>
+        <v>0.3268611174824813</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4241477139902829</v>
+        <v>0.4258815334010723</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>237</v>
@@ -1429,19 +1429,19 @@
         <v>238878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>213556</v>
+        <v>212580</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>263709</v>
+        <v>265031</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3233331579786992</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2890578089623715</v>
+        <v>0.287736683302925</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3569431052045176</v>
+        <v>0.3587318492501861</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>241674</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>223207</v>
+        <v>223172</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>259303</v>
+        <v>260905</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.658630307681808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6083032212826048</v>
+        <v>0.6082074381131863</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7066758296558857</v>
+        <v>0.7110415130093704</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>196</v>
@@ -1479,19 +1479,19 @@
         <v>205481</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>186711</v>
+        <v>186110</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>225029</v>
+        <v>224530</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5525681520397075</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5020922943378003</v>
+        <v>0.5004782657944292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6051357956679847</v>
+        <v>0.6037948940996847</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>429</v>
@@ -1500,19 +1500,19 @@
         <v>447155</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>421553</v>
+        <v>419896</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>472020</v>
+        <v>474511</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6052453018038082</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5705924350462585</v>
+        <v>0.5683497277605494</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6389022825653773</v>
+        <v>0.6422734545749058</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>19411</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12387</v>
+        <v>12378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31284</v>
+        <v>29757</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03578840030991092</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02283707776871098</v>
+        <v>0.02282200547706626</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.057679024018185</v>
+        <v>0.05486260003045129</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -1625,19 +1625,19 @@
         <v>10061</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4921</v>
+        <v>5130</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17776</v>
+        <v>17987</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05996558614689657</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0293296913677563</v>
+        <v>0.03057521736353313</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1059488816102911</v>
+        <v>0.1072069309803898</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1646,19 +1646,19 @@
         <v>29472</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20116</v>
+        <v>20473</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42450</v>
+        <v>40975</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04150039692666692</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02832590603138862</v>
+        <v>0.02882771469877505</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05977445495732073</v>
+        <v>0.05769752502775005</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>7905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3105</v>
+        <v>3450</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15598</v>
+        <v>15856</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01457484060560798</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00572528587565498</v>
+        <v>0.006360649850510811</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02875784002822382</v>
+        <v>0.02923309718614366</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1696,19 +1696,19 @@
         <v>3712</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8576</v>
+        <v>9390</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02212610144138839</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006034206592780754</v>
+        <v>0.006008961031904739</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05111465218916841</v>
+        <v>0.05596627466210043</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -1717,19 +1717,19 @@
         <v>11618</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6626</v>
+        <v>6196</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>20428</v>
+        <v>20102</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01635886859947964</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009330649692463508</v>
+        <v>0.008725340658426863</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02876448887889177</v>
+        <v>0.02830650957844456</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>8077</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3980</v>
+        <v>3930</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15395</v>
+        <v>16364</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01489183241779343</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.007337107958790052</v>
+        <v>0.007246475856344967</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02838365317778951</v>
+        <v>0.03016991748004926</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1767,19 +1767,19 @@
         <v>5244</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1997</v>
+        <v>1973</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11422</v>
+        <v>11526</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.0312533102190281</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01190512141715184</v>
+        <v>0.01176083462305754</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06807456848572389</v>
+        <v>0.0686942152016235</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>13</v>
@@ -1788,19 +1788,19 @@
         <v>13321</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>7846</v>
+        <v>7829</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22068</v>
+        <v>22900</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0187573238970711</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01104737722599905</v>
+        <v>0.01102366307397447</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03107409280768383</v>
+        <v>0.03224635539849881</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>128250</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>108684</v>
+        <v>109675</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>146914</v>
+        <v>148928</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2364547059511244</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2003810638793628</v>
+        <v>0.2022064895150992</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2708645579858945</v>
+        <v>0.2745777640662938</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -1838,19 +1838,19 @@
         <v>27183</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19190</v>
+        <v>18976</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38624</v>
+        <v>38532</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1620128214966542</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1143771955927122</v>
+        <v>0.1130976251248228</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2302042681541243</v>
+        <v>0.2296566965256046</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -1859,19 +1859,19 @@
         <v>155433</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>135457</v>
+        <v>133888</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>180096</v>
+        <v>177900</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2188673905780343</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1907385662204683</v>
+        <v>0.1885285826172641</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2535951722389586</v>
+        <v>0.2505028755088827</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>378745</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>358221</v>
+        <v>357527</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>400733</v>
+        <v>399872</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6982902207155632</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6604505116795362</v>
+        <v>0.6591711083174917</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7388300556500325</v>
+        <v>0.7372423466757302</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -1909,19 +1909,19 @@
         <v>121582</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>108928</v>
+        <v>109017</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>132524</v>
+        <v>132481</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7246421806960327</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6492256766349361</v>
+        <v>0.649751581848615</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7898567656251908</v>
+        <v>0.7896015494605318</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>490</v>
@@ -1930,19 +1930,19 @@
         <v>500327</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>472415</v>
+        <v>475280</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>521478</v>
+        <v>523309</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.704516019998748</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6652123970653865</v>
+        <v>0.6692466416166705</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7342987256469151</v>
+        <v>0.736877191427179</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>56047</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>42790</v>
+        <v>43021</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69957</v>
+        <v>71687</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04525987178384716</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03455475183703214</v>
+        <v>0.03474106976665031</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05649295465134661</v>
+        <v>0.05788967100135457</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -2055,19 +2055,19 @@
         <v>55506</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42030</v>
+        <v>42445</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72388</v>
+        <v>72850</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07770814187470829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05884232525774769</v>
+        <v>0.05942274314371048</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1013434481721161</v>
+        <v>0.1019898619612303</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>111</v>
@@ -2076,19 +2076,19 @@
         <v>111553</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>92366</v>
+        <v>92824</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>131537</v>
+        <v>134563</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05712973202972986</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04730383955285773</v>
+        <v>0.04753841620086222</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06736414884656039</v>
+        <v>0.06891426685880832</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>10233</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5162</v>
+        <v>5381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18778</v>
+        <v>17586</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008263882970149322</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.004168578628426511</v>
+        <v>0.004345087266923979</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01516353502280457</v>
+        <v>0.01420150757708473</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2126,19 +2126,19 @@
         <v>15330</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>8189</v>
+        <v>8624</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>26149</v>
+        <v>26326</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02146228314593261</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01146481618480742</v>
+        <v>0.01207356023845926</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03660829846682202</v>
+        <v>0.03685687133346305</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>23</v>
@@ -2147,19 +2147,19 @@
         <v>25564</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>15870</v>
+        <v>16273</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>38276</v>
+        <v>37534</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01309197288425246</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.008127333620145831</v>
+        <v>0.0083341696603278</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0196021394085665</v>
+        <v>0.01922220151218055</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>17593</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9571</v>
+        <v>9626</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29810</v>
+        <v>30833</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01420709602885572</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007729058012857438</v>
+        <v>0.007773630918304665</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02407249911962506</v>
+        <v>0.02489847157970097</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -2197,19 +2197,19 @@
         <v>34075</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>22661</v>
+        <v>23214</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46164</v>
+        <v>47797</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04770491566067519</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.031725431433754</v>
+        <v>0.03250003022950617</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0646291399764784</v>
+        <v>0.06691596535497024</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>45</v>
@@ -2218,19 +2218,19 @@
         <v>51668</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>38469</v>
+        <v>37718</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>69548</v>
+        <v>68963</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02646089065205411</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01970108406615798</v>
+        <v>0.01931676887307755</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03561789816421961</v>
+        <v>0.03531844127694387</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>332580</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>303148</v>
+        <v>300635</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>365418</v>
+        <v>362406</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2685705895891663</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2448030863340776</v>
+        <v>0.2427735320634579</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2950887469307003</v>
+        <v>0.2926560874832813</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>204</v>
@@ -2268,19 +2268,19 @@
         <v>208897</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>185739</v>
+        <v>185380</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>235347</v>
+        <v>235656</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2924557460033614</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2600345233110811</v>
+        <v>0.2595319538445122</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3294866217148466</v>
+        <v>0.3299185421906372</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>530</v>
@@ -2289,19 +2289,19 @@
         <v>541477</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>502478</v>
+        <v>502938</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>585753</v>
+        <v>583993</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2773079881559822</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2573354248261013</v>
+        <v>0.2575707728199366</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2999833367710419</v>
+        <v>0.2990818815900152</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>821880</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>786741</v>
+        <v>787622</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>853691</v>
+        <v>852562</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6636985596279815</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6353219640527612</v>
+        <v>0.6360337776479578</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6893868064916772</v>
+        <v>0.6884753938041154</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>393</v>
@@ -2339,19 +2339,19 @@
         <v>400477</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>374863</v>
+        <v>373006</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>430060</v>
+        <v>426822</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5606689133153225</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5248087883359704</v>
+        <v>0.5222084516751659</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6020847450085294</v>
+        <v>0.5975519462389588</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1209</v>
@@ -2360,19 +2360,19 @@
         <v>1222359</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1177012</v>
+        <v>1179177</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1264203</v>
+        <v>1262981</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6260094162779813</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6027859964287428</v>
+        <v>0.6038945261862416</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6474392146492691</v>
+        <v>0.6468137607618444</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>14953</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>8350</v>
+        <v>8521</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23584</v>
+        <v>23436</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04265465201247551</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02381823933993391</v>
+        <v>0.02430621549068022</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0672771474140048</v>
+        <v>0.06685371385652412</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -2485,19 +2485,19 @@
         <v>57444</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>43296</v>
+        <v>43774</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>74378</v>
+        <v>73132</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1010001279783587</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07612540877570871</v>
+        <v>0.07696494374252873</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1307738675254362</v>
+        <v>0.1285840921976722</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>70</v>
@@ -2506,19 +2506,19 @@
         <v>72397</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>57075</v>
+        <v>57642</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>89598</v>
+        <v>90741</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07875150852664649</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06208467083338067</v>
+        <v>0.06270172817070678</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09746208820260732</v>
+        <v>0.09870629353903043</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>6320</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2584</v>
+        <v>2635</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13737</v>
+        <v>13909</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01802945641327846</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007370513385690359</v>
+        <v>0.007517924436511173</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03918516781467953</v>
+        <v>0.03967775187811913</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -2556,19 +2556,19 @@
         <v>17866</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>10797</v>
+        <v>10406</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27770</v>
+        <v>28423</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03141273501295343</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01898356041299807</v>
+        <v>0.01829676516971017</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04882615630881687</v>
+        <v>0.04997447791478304</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>22</v>
@@ -2577,19 +2577,19 @@
         <v>24186</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15685</v>
+        <v>15237</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36329</v>
+        <v>36177</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02630934922937488</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01706206090087563</v>
+        <v>0.01657467840197115</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03951757266568429</v>
+        <v>0.03935288668569853</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>9895</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4827</v>
+        <v>5078</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17309</v>
+        <v>17548</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02822800200142026</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0137685318225874</v>
+        <v>0.01448700729617761</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04937468727025601</v>
+        <v>0.0500590955988439</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>19</v>
@@ -2627,19 +2627,19 @@
         <v>20258</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>12624</v>
+        <v>12152</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>30956</v>
+        <v>30837</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03561857015219418</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0221954279362799</v>
+        <v>0.02136647157479752</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0544282372979925</v>
+        <v>0.05421927767165688</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>29</v>
@@ -2648,19 +2648,19 @@
         <v>30154</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20237</v>
+        <v>20708</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>42592</v>
+        <v>42574</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03280035784701629</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02201334237410179</v>
+        <v>0.0225252651049649</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04633024967208238</v>
+        <v>0.04631051303256711</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>130341</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>114211</v>
+        <v>111013</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>149147</v>
+        <v>147982</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3718128166372056</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3257990964179402</v>
+        <v>0.3166778959235108</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4254585204307936</v>
+        <v>0.422136957080245</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>96</v>
@@ -2698,19 +2698,19 @@
         <v>103426</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>84828</v>
+        <v>86964</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>122202</v>
+        <v>124488</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1818468002627367</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1491479816297835</v>
+        <v>0.1529026348413792</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2148597632867319</v>
+        <v>0.2188785351916613</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>218</v>
@@ -2719,19 +2719,19 @@
         <v>233767</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>208523</v>
+        <v>207818</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>260295</v>
+        <v>263448</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2542856918324048</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2268262735022689</v>
+        <v>0.2260594813797079</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2831428124680329</v>
+        <v>0.2865727522934459</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>189046</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>170106</v>
+        <v>171277</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>207162</v>
+        <v>208269</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5392750729356202</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4852471104559053</v>
+        <v>0.4885891509014174</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5909546501979122</v>
+        <v>0.5941120563524658</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>354</v>
@@ -2769,19 +2769,19 @@
         <v>369758</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>346463</v>
+        <v>346651</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>392129</v>
+        <v>392951</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.650121766593757</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6091643043825654</v>
+        <v>0.6094939594878985</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6894543411907734</v>
+        <v>0.6909011066949389</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>540</v>
@@ -2790,19 +2790,19 @@
         <v>558804</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>531303</v>
+        <v>527507</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>590312</v>
+        <v>590052</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6078530925645576</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5779380812932406</v>
+        <v>0.5738092689111512</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6421266282118185</v>
+        <v>0.6418441771789064</v>
       </c>
     </row>
     <row r="33">
@@ -2894,19 +2894,19 @@
         <v>3761</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>964</v>
+        <v>929</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9268</v>
+        <v>9471</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01261381964395721</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.003233423095154864</v>
+        <v>0.003116306451575621</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03107849756513203</v>
+        <v>0.03175914427852737</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>244</v>
@@ -2915,19 +2915,19 @@
         <v>257478</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>230892</v>
+        <v>230349</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>290818</v>
+        <v>286500</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2061872691674274</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1848970024449338</v>
+        <v>0.1844624898674168</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2328852476380338</v>
+        <v>0.2294276733347676</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>248</v>
@@ -2936,19 +2936,19 @@
         <v>261240</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>231120</v>
+        <v>232964</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>289673</v>
+        <v>290935</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1688729915971828</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1494025479017272</v>
+        <v>0.1505949990888149</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1872531529864645</v>
+        <v>0.1880690172483737</v>
       </c>
     </row>
     <row r="35">
@@ -2978,19 +2978,19 @@
         <v>7569</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3268</v>
+        <v>3102</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>15154</v>
+        <v>14689</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.006061273878685368</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002617056481941583</v>
+        <v>0.002484349232933847</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01213519139530548</v>
+        <v>0.01176296209099679</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -2999,19 +2999,19 @@
         <v>7569</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3198</v>
+        <v>3331</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15154</v>
+        <v>14752</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.004892869552083149</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.002067391508578891</v>
+        <v>0.00215336069301483</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.009795950937817875</v>
+        <v>0.009535800488249353</v>
       </c>
     </row>
     <row r="36">
@@ -3041,19 +3041,19 @@
         <v>12969</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>7060</v>
+        <v>7075</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>21554</v>
+        <v>22403</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01038526502180187</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.005653785631840801</v>
+        <v>0.005665666981138812</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01726020018623957</v>
+        <v>0.01794047605554298</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>13</v>
@@ -3062,19 +3062,19 @@
         <v>12969</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>7450</v>
+        <v>7772</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>22253</v>
+        <v>22120</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.008383344496967279</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.004816149280121458</v>
+        <v>0.005024063200306781</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01438491211663555</v>
+        <v>0.01429869693818215</v>
       </c>
     </row>
     <row r="37">
@@ -3091,19 +3091,19 @@
         <v>289418</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>280698</v>
+        <v>280895</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>294380</v>
+        <v>294294</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9705461763039708</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9413046286067528</v>
+        <v>0.941964693048967</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9871857273997744</v>
+        <v>0.9868983106056348</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>289</v>
@@ -3112,19 +3112,19 @@
         <v>272962</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>248268</v>
+        <v>248389</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>300996</v>
+        <v>304799</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2185861579501029</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1988119540647266</v>
+        <v>0.1989084481962134</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2410358139241267</v>
+        <v>0.24408098322208</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>587</v>
@@ -3133,19 +3133,19 @@
         <v>562379</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>523001</v>
+        <v>525401</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>597494</v>
+        <v>602408</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3635380866141649</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3380830539915575</v>
+        <v>0.3396344118926428</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3862376132126502</v>
+        <v>0.3894142342936137</v>
       </c>
     </row>
     <row r="38">
@@ -3162,19 +3162,19 @@
         <v>5022</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1390</v>
+        <v>981</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>13287</v>
+        <v>12606</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01684000405207202</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.004662928822603961</v>
+        <v>0.00329133094185487</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04455725900939111</v>
+        <v>0.0422725361108701</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>685</v>
@@ -3183,19 +3183,19 @@
         <v>697782</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>663720</v>
+        <v>662882</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>734302</v>
+        <v>727910</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5587800339819824</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5315032494615699</v>
+        <v>0.5308323930469432</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5880246605751485</v>
+        <v>0.5829064825820515</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>689</v>
@@ -3204,19 +3204,19 @@
         <v>702804</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>663101</v>
+        <v>661434</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>738936</v>
+        <v>737573</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4543127077396019</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4286477527398532</v>
+        <v>0.4275703128070061</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4776700259666288</v>
+        <v>0.4767888198615688</v>
       </c>
     </row>
     <row r="39">
@@ -3308,19 +3308,19 @@
         <v>112318</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>94139</v>
+        <v>93967</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>135464</v>
+        <v>134681</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03434601515797697</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02878691879240957</v>
+        <v>0.02873448492335371</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04142380964798685</v>
+        <v>0.04118441141614137</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>379</v>
@@ -3329,19 +3329,19 @@
         <v>400873</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>365312</v>
+        <v>365118</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>436194</v>
+        <v>442308</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.118667488773069</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1081405186710584</v>
+        <v>0.1080830636368273</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1291232307279249</v>
+        <v>0.130932976506257</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>494</v>
@@ -3350,19 +3350,19 @@
         <v>513191</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>469556</v>
+        <v>471925</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>559515</v>
+        <v>556541</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07719122292693617</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07062787837325392</v>
+        <v>0.07098417384146262</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08415889126832805</v>
+        <v>0.08371160217658992</v>
       </c>
     </row>
     <row r="41">
@@ -3379,19 +3379,19 @@
         <v>38468</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>27206</v>
+        <v>27036</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>54480</v>
+        <v>52516</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01176324001576813</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008319423665949987</v>
+        <v>0.008267407249444327</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01665965014068908</v>
+        <v>0.01605894529558577</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>59</v>
@@ -3400,19 +3400,19 @@
         <v>64176</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>49076</v>
+        <v>48150</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>81577</v>
+        <v>81302</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01899756819336749</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0145277186532385</v>
+        <v>0.01425348219352427</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02414851422458028</v>
+        <v>0.02406719471525525</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>95</v>
@@ -3421,19 +3421,19 @@
         <v>102644</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>83042</v>
+        <v>83124</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>125791</v>
+        <v>124167</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01543912802565941</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01249072542004896</v>
+        <v>0.01250302429475958</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01892076950816083</v>
+        <v>0.01867641729008937</v>
       </c>
     </row>
     <row r="42">
@@ -3450,19 +3450,19 @@
         <v>49985</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>35992</v>
+        <v>35944</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>67176</v>
+        <v>66809</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01528517126858922</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01100623687992887</v>
+        <v>0.01099135150676219</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02054190530802013</v>
+        <v>0.02042955022957553</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>90</v>
@@ -3471,19 +3471,19 @@
         <v>95793</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>77124</v>
+        <v>78609</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>117077</v>
+        <v>117473</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02835692929293785</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02283043999956141</v>
+        <v>0.02326992585878969</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03465746903643602</v>
+        <v>0.034774734126798</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>133</v>
@@ -3492,19 +3492,19 @@
         <v>145779</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>122800</v>
+        <v>122900</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>173748</v>
+        <v>169862</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02192715894322748</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01847085342275361</v>
+        <v>0.01848591951588742</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02613408547917017</v>
+        <v>0.02554961198487958</v>
       </c>
     </row>
     <row r="43">
@@ -3521,19 +3521,19 @@
         <v>1105433</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1052571</v>
+        <v>1052245</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1158790</v>
+        <v>1156022</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3380333602775273</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3218683533464448</v>
+        <v>0.3217687541693988</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3543495276098317</v>
+        <v>0.3535028636407922</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>847</v>
@@ -3542,19 +3542,19 @@
         <v>842665</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>793876</v>
+        <v>795940</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>894543</v>
+        <v>893551</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2494476025723619</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2350050995891119</v>
+        <v>0.2356160679045555</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2648048014392658</v>
+        <v>0.2645109756717514</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1934</v>
@@ -3563,19 +3563,19 @@
         <v>1948098</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1878485</v>
+        <v>1877925</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2022143</v>
+        <v>2028350</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2930213955723805</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2825506069845676</v>
+        <v>0.2824663631931646</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3041588145853134</v>
+        <v>0.3050923486945518</v>
       </c>
     </row>
     <row r="44">
@@ -3592,19 +3592,19 @@
         <v>1963985</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1908391</v>
+        <v>1911669</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2020582</v>
+        <v>2021242</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.6005722132801384</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5835718878382185</v>
+        <v>0.58457428404145</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6178789798787877</v>
+        <v>0.6180809473441908</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1921</v>
@@ -3613,19 +3613,19 @@
         <v>1974616</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1914333</v>
+        <v>1919347</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2032894</v>
+        <v>2030506</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5845304111682638</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5666852557296282</v>
+        <v>0.5681694026639411</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6017818020432273</v>
+        <v>0.6010750081808089</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3847</v>
@@ -3634,19 +3634,19 @@
         <v>3938601</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3862917</v>
+        <v>3853559</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>4020500</v>
+        <v>4013799</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5924210945317965</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5810371567125497</v>
+        <v>0.5796294872393543</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6047398048774427</v>
+        <v>0.6037318651025887</v>
       </c>
     </row>
     <row r="45">
@@ -3980,19 +3980,19 @@
         <v>11549</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6075</v>
+        <v>6171</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19731</v>
+        <v>19153</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02647583149109151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0139267339298972</v>
+        <v>0.01414823946754361</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04523300251685302</v>
+        <v>0.04390791064442937</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -4001,19 +4001,19 @@
         <v>7348</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3252</v>
+        <v>2960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14320</v>
+        <v>14110</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02336707785988049</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01034151637870908</v>
+        <v>0.009411865322975738</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0455382972796295</v>
+        <v>0.04487123986318002</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -4022,19 +4022,19 @@
         <v>18897</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11680</v>
+        <v>11577</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29036</v>
+        <v>28874</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02517355138722898</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01556029135593432</v>
+        <v>0.01542221924468208</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03868129296409116</v>
+        <v>0.03846470128801454</v>
       </c>
     </row>
     <row r="5">
@@ -4051,19 +4051,19 @@
         <v>15885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8945</v>
+        <v>8828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27722</v>
+        <v>26180</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03641595979202713</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02050664824751929</v>
+        <v>0.02023796409143072</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06355371685774386</v>
+        <v>0.06001888161677171</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -4072,19 +4072,19 @@
         <v>13737</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6873</v>
+        <v>6800</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24362</v>
+        <v>22616</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04368464313053857</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02185557789957561</v>
+        <v>0.02162619312294171</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07747407163422523</v>
+        <v>0.07192014007988733</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -4093,19 +4093,19 @@
         <v>29621</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19588</v>
+        <v>18888</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44031</v>
+        <v>43185</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03946086550536057</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02609460295575146</v>
+        <v>0.02516222210249923</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05865633492453644</v>
+        <v>0.05753013355208533</v>
       </c>
     </row>
     <row r="6">
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7585</v>
+        <v>7113</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004703645346139014</v>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01738820322665038</v>
+        <v>0.01630566252700682</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -4146,16 +4146,16 @@
         <v>1022</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9447</v>
+        <v>9229</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01304200393742119</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003251472514498423</v>
+        <v>0.003251263167088142</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03004195810718564</v>
+        <v>0.02934851976627073</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -4164,19 +4164,19 @@
         <v>6153</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2154</v>
+        <v>2902</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13207</v>
+        <v>12167</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.008196646008294372</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002869361939594921</v>
+        <v>0.003865573272889214</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01759398087035612</v>
+        <v>0.0162084524698547</v>
       </c>
     </row>
     <row r="7">
@@ -4193,19 +4193,19 @@
         <v>124036</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>106481</v>
+        <v>104854</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>144302</v>
+        <v>146212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.284356638726102</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2441120863686729</v>
+        <v>0.2403820257144545</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3308179886341966</v>
+        <v>0.3351954900617501</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>83</v>
@@ -4214,19 +4214,19 @@
         <v>94193</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77640</v>
+        <v>78408</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112525</v>
+        <v>112664</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2995434869285179</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2469054664666174</v>
+        <v>0.2493449255691445</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3578430563444495</v>
+        <v>0.3582849885407621</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -4235,19 +4235,19 @@
         <v>218229</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>191967</v>
+        <v>192675</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>240509</v>
+        <v>244581</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2907185228123241</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2557339557175544</v>
+        <v>0.256676576323712</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3204000382438715</v>
+        <v>0.3258249264994554</v>
       </c>
     </row>
     <row r="8">
@@ -4264,19 +4264,19 @@
         <v>282678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>261383</v>
+        <v>260527</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>301235</v>
+        <v>304938</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6480479246446403</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.599227989308748</v>
+        <v>0.5972667202191201</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6905914473338559</v>
+        <v>0.6990804876181627</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>177</v>
@@ -4285,19 +4285,19 @@
         <v>195076</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>174849</v>
+        <v>176042</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>212578</v>
+        <v>212705</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6203627881436419</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5560391521546373</v>
+        <v>0.5598347553926311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6760236422133278</v>
+        <v>0.676427052816319</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>436</v>
@@ -4306,19 +4306,19 @@
         <v>477753</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>451403</v>
+        <v>448915</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>504947</v>
+        <v>505018</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6364504142867919</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6013466905725982</v>
+        <v>0.5980322702627187</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6726767854348527</v>
+        <v>0.6727712448751176</v>
       </c>
     </row>
     <row r="9">
@@ -4410,19 +4410,19 @@
         <v>11814</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5406</v>
+        <v>5348</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22739</v>
+        <v>20685</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.028292356706033</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01294748967288242</v>
+        <v>0.01280897620269994</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05445689009333862</v>
+        <v>0.04953801450548519</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -4431,19 +4431,19 @@
         <v>11185</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6004</v>
+        <v>6038</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19066</v>
+        <v>19504</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03308942037935341</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01776202985302536</v>
+        <v>0.01786357921965576</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05640545090923036</v>
+        <v>0.05770156820988044</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -4452,19 +4452,19 @@
         <v>22998</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>13560</v>
+        <v>14438</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35144</v>
+        <v>37268</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03043838925879018</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01794692455517685</v>
+        <v>0.01910941554526619</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04651375251605834</v>
+        <v>0.04932467453782147</v>
       </c>
     </row>
     <row r="11">
@@ -4481,19 +4481,19 @@
         <v>10290</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4997</v>
+        <v>5079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19988</v>
+        <v>20011</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02464470784242118</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01196711189335673</v>
+        <v>0.01216335171367404</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04786854300650103</v>
+        <v>0.04792432887750482</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -4502,19 +4502,19 @@
         <v>11525</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6282</v>
+        <v>5452</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19898</v>
+        <v>20117</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0340976034333703</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01858631435685386</v>
+        <v>0.01613102035709891</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05886705920198015</v>
+        <v>0.0595156410456549</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>20</v>
@@ -4523,19 +4523,19 @@
         <v>21816</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13428</v>
+        <v>14142</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>32447</v>
+        <v>33361</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02887359097541282</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01777227519267066</v>
+        <v>0.0187171267730977</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04294381436659437</v>
+        <v>0.04415403696864276</v>
       </c>
     </row>
     <row r="12">
@@ -4552,19 +4552,19 @@
         <v>7115</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3021</v>
+        <v>3072</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13414</v>
+        <v>14135</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01704102414949449</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.007234256357158385</v>
+        <v>0.00735690182677454</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03212439425645503</v>
+        <v>0.03385290918307512</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -4573,19 +4573,19 @@
         <v>11871</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6231</v>
+        <v>6141</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21249</v>
+        <v>20673</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03512035643802427</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01843489119279629</v>
+        <v>0.01816800818284718</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06286490557844933</v>
+        <v>0.06116185235465027</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -4594,19 +4594,19 @@
         <v>18987</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12017</v>
+        <v>11087</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30278</v>
+        <v>28743</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0251290626383485</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01590486475750724</v>
+        <v>0.0146742542334164</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04007393859972098</v>
+        <v>0.03804144557447856</v>
       </c>
     </row>
     <row r="13">
@@ -4623,19 +4623,19 @@
         <v>104699</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>85471</v>
+        <v>86266</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123688</v>
+        <v>124532</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2507463250668522</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2046966609108099</v>
+        <v>0.2066001390463477</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2962226096642032</v>
+        <v>0.2982431929393841</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -4644,19 +4644,19 @@
         <v>85028</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70449</v>
+        <v>68575</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>102480</v>
+        <v>102587</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2515525596241824</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2084225959939462</v>
+        <v>0.2028774785195231</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3031868371661769</v>
+        <v>0.3035007966587897</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>174</v>
@@ -4665,19 +4665,19 @@
         <v>189727</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>163418</v>
+        <v>165145</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>215084</v>
+        <v>215444</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2511070052085004</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2162869779126907</v>
+        <v>0.2185726442114954</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2846673626634022</v>
+        <v>0.2851435249808203</v>
       </c>
     </row>
     <row r="14">
@@ -4694,19 +4694,19 @@
         <v>283632</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>263523</v>
+        <v>261790</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>303523</v>
+        <v>303492</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6792755862351991</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6311154624592435</v>
+        <v>0.626966236108162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7269115838851122</v>
+        <v>0.7268386434663777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>193</v>
@@ -4715,19 +4715,19 @@
         <v>218402</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>200143</v>
+        <v>198767</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>236128</v>
+        <v>236331</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6461400601250696</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5921187569928221</v>
+        <v>0.5880482120304529</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6985811588372054</v>
+        <v>0.6991801719949584</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>447</v>
@@ -4736,19 +4736,19 @@
         <v>502035</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>472778</v>
+        <v>475446</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>527645</v>
+        <v>530814</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6644519519189481</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6257303659716208</v>
+        <v>0.6292608451288003</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6983473979646859</v>
+        <v>0.702542427174764</v>
       </c>
     </row>
     <row r="15">
@@ -4840,19 +4840,19 @@
         <v>18803</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11480</v>
+        <v>10422</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31249</v>
+        <v>30129</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02995829733369612</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01829011853592503</v>
+        <v>0.01660550167630732</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04978752388240557</v>
+        <v>0.04800299855081068</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -4861,19 +4861,19 @@
         <v>28190</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18748</v>
+        <v>18662</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39516</v>
+        <v>38589</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1083685119447196</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07207340309037596</v>
+        <v>0.07174289483417973</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1519104851131735</v>
+        <v>0.1483442997873835</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>43</v>
@@ -4882,19 +4882,19 @@
         <v>46993</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>34759</v>
+        <v>34445</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61008</v>
+        <v>63794</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05293362337571361</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03915297967048829</v>
+        <v>0.03879924532675447</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06872025540676963</v>
+        <v>0.07185915413589956</v>
       </c>
     </row>
     <row r="17">
@@ -4911,19 +4911,19 @@
         <v>13257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6846</v>
+        <v>6168</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25518</v>
+        <v>24608</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0211225040735731</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01090740806124153</v>
+        <v>0.009826916506494685</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04065628647875737</v>
+        <v>0.03920790738936435</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -4932,19 +4932,19 @@
         <v>12086</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6132</v>
+        <v>6227</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21003</v>
+        <v>20622</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04646029728768193</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0235727097474783</v>
+        <v>0.02393675850680099</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08073907172195653</v>
+        <v>0.07927751350308336</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>21</v>
@@ -4953,19 +4953,19 @@
         <v>25343</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16049</v>
+        <v>15580</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>38660</v>
+        <v>38952</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02854684365952198</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01807760266213802</v>
+        <v>0.01754955894171069</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04354720598336334</v>
+        <v>0.0438766370325241</v>
       </c>
     </row>
     <row r="18">
@@ -4982,19 +4982,19 @@
         <v>15856</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8826</v>
+        <v>8836</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26908</v>
+        <v>26268</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02526249121102203</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01406241040469402</v>
+        <v>0.01407842151455026</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04287231634899242</v>
+        <v>0.04185215090937677</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -5003,19 +5003,19 @@
         <v>5842</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1952</v>
+        <v>1970</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11687</v>
+        <v>11857</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02245637019582314</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.007504479532195799</v>
+        <v>0.007572663015446183</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04492712248853809</v>
+        <v>0.04557962828317676</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>20</v>
@@ -5024,19 +5024,19 @@
         <v>21697</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>13803</v>
+        <v>13311</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>33094</v>
+        <v>33573</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02444025720034649</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01554791779593072</v>
+        <v>0.01499358540580142</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03727760744861638</v>
+        <v>0.03781709352762107</v>
       </c>
     </row>
     <row r="19">
@@ -5053,19 +5053,19 @@
         <v>147852</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>127056</v>
+        <v>126716</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>172942</v>
+        <v>170987</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2355674000121761</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2024335470932076</v>
+        <v>0.2018921630958945</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2755435989622468</v>
+        <v>0.2724283560711921</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>49</v>
@@ -5074,19 +5074,19 @@
         <v>52379</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39070</v>
+        <v>40009</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66233</v>
+        <v>65612</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2013577857046287</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1501950994454334</v>
+        <v>0.1538035755320685</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2546148317478448</v>
+        <v>0.2522270689864525</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>190</v>
@@ -5095,19 +5095,19 @@
         <v>200231</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>173933</v>
+        <v>176135</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>224826</v>
+        <v>225326</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2255434886329427</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.195921056594477</v>
+        <v>0.19840182979897</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2532481183070853</v>
+        <v>0.2538113517809456</v>
       </c>
     </row>
     <row r="20">
@@ -5124,19 +5124,19 @@
         <v>431873</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>405455</v>
+        <v>406513</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>455336</v>
+        <v>454884</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6880893073695327</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6459984593260353</v>
+        <v>0.647684577695422</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7254727333438568</v>
+        <v>0.7247513526367168</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>151</v>
@@ -5145,19 +5145,19 @@
         <v>161633</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>143837</v>
+        <v>146313</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>177280</v>
+        <v>177406</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6213570348671467</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5529459949440918</v>
+        <v>0.5624618438012142</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6815066863975902</v>
+        <v>0.6819921179295865</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>559</v>
@@ -5166,19 +5166,19 @@
         <v>593506</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>565274</v>
+        <v>566777</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>622540</v>
+        <v>622273</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6685357871314752</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6367351697818648</v>
+        <v>0.6384274690670806</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7012407464309912</v>
+        <v>0.700939161902267</v>
       </c>
     </row>
     <row r="21">
@@ -5270,19 +5270,19 @@
         <v>55489</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41080</v>
+        <v>41806</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71687</v>
+        <v>71885</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04791252042558546</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03547077847587906</v>
+        <v>0.0360975165487458</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06189899821232893</v>
+        <v>0.06207009535598877</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -5291,19 +5291,19 @@
         <v>51860</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39169</v>
+        <v>39505</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67795</v>
+        <v>69604</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06772776121567947</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0511529312555421</v>
+        <v>0.05159141515651929</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08853807434424792</v>
+        <v>0.09090025635584428</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>100</v>
@@ -5312,19 +5312,19 @@
         <v>107349</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88348</v>
+        <v>87775</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>132146</v>
+        <v>129267</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05579926184869955</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04592268915674931</v>
+        <v>0.0456244467090457</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06868812814142038</v>
+        <v>0.06719198390052855</v>
       </c>
     </row>
     <row r="23">
@@ -5341,19 +5341,19 @@
         <v>33069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>22707</v>
+        <v>22343</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>46769</v>
+        <v>46284</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02855396862871964</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01960620750153328</v>
+        <v>0.01929270123017826</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04038321063389189</v>
+        <v>0.03996446363308899</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>35</v>
@@ -5362,19 +5362,19 @@
         <v>37149</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>26675</v>
+        <v>25970</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>52318</v>
+        <v>51237</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04851582975093723</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03483687855351048</v>
+        <v>0.03391519689939371</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06832530088464842</v>
+        <v>0.06691350531459521</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>64</v>
@@ -5383,19 +5383,19 @@
         <v>70219</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>52918</v>
+        <v>54511</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>90172</v>
+        <v>89562</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03649906698320182</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02750608943250187</v>
+        <v>0.0283344164221313</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04687086036679725</v>
+        <v>0.04655378100038012</v>
       </c>
     </row>
     <row r="24">
@@ -5412,19 +5412,19 @@
         <v>18796</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11426</v>
+        <v>10920</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29147</v>
+        <v>29343</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01622953095309105</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.009866126483624236</v>
+        <v>0.009428906430280957</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02516689050331407</v>
+        <v>0.0253363320135553</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>14</v>
@@ -5433,19 +5433,19 @@
         <v>16240</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8850</v>
+        <v>8770</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>26177</v>
+        <v>25982</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02120862995272441</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01155792612216512</v>
+        <v>0.01145378013210421</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03418603842078283</v>
+        <v>0.0339308770323028</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>32</v>
@@ -5454,19 +5454,19 @@
         <v>35036</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>24846</v>
+        <v>24089</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>49602</v>
+        <v>50669</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01821128160382378</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01291485241653826</v>
+        <v>0.0125214425375979</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02578251513559746</v>
+        <v>0.02633743950534001</v>
       </c>
     </row>
     <row r="25">
@@ -5483,19 +5483,19 @@
         <v>317661</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>285957</v>
+        <v>288285</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>347372</v>
+        <v>353437</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2742880917184701</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2469127857388983</v>
+        <v>0.2489226182710969</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2999420821433523</v>
+        <v>0.3051791575816643</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>207</v>
@@ -5504,19 +5504,19 @@
         <v>222484</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>197803</v>
+        <v>198902</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>247449</v>
+        <v>248227</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2905555411084043</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2583235713894709</v>
+        <v>0.2597584462227617</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3231588679587979</v>
+        <v>0.3241752945294098</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>504</v>
@@ -5525,19 +5525,19 @@
         <v>540145</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>502849</v>
+        <v>499968</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>578961</v>
+        <v>578710</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2807627628219443</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.261376464726795</v>
+        <v>0.2598787773136758</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3009389499357498</v>
+        <v>0.3008086392571264</v>
       </c>
     </row>
     <row r="26">
@@ -5554,19 +5554,19 @@
         <v>733115</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>701523</v>
+        <v>696837</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>767935</v>
+        <v>767627</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6330158882741337</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6057378738285008</v>
+        <v>0.6016911100469872</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6630815677617699</v>
+        <v>0.6628160639197364</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>407</v>
@@ -5575,19 +5575,19 @@
         <v>437985</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>408521</v>
+        <v>408342</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>464459</v>
+        <v>465680</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5719922379722546</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5335126918442739</v>
+        <v>0.533279392146653</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6065658254112457</v>
+        <v>0.6081600216835655</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1092</v>
@@ -5596,19 +5596,19 @@
         <v>1171100</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1127899</v>
+        <v>1127467</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1211862</v>
+        <v>1213867</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6087276267423305</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5862718996777364</v>
+        <v>0.586047619122276</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6299155811901648</v>
+        <v>0.6309574703340961</v>
       </c>
     </row>
     <row r="27">
@@ -5700,19 +5700,19 @@
         <v>25053</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>16158</v>
+        <v>16657</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>36999</v>
+        <v>36506</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04926232905065608</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03177231733039301</v>
+        <v>0.03275175129501129</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07275172353157613</v>
+        <v>0.07178231822378145</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>93</v>
@@ -5721,19 +5721,19 @@
         <v>98627</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>80728</v>
+        <v>82276</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>118792</v>
+        <v>119892</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.129512452881476</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1060085039763052</v>
+        <v>0.1080414649881002</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1559933317292575</v>
+        <v>0.1574368163036294</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>116</v>
@@ -5742,19 +5742,19 @@
         <v>123680</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>102471</v>
+        <v>104722</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>147229</v>
+        <v>148092</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09737869441507022</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0806796971280271</v>
+        <v>0.0824525267957506</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1159200472538255</v>
+        <v>0.1165991272538731</v>
       </c>
     </row>
     <row r="29">
@@ -5771,19 +5771,19 @@
         <v>11005</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5737</v>
+        <v>4875</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>22083</v>
+        <v>19980</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02163845610734551</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01128145893030666</v>
+        <v>0.009586238171294545</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04342221924794684</v>
+        <v>0.03928627357764367</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -5792,19 +5792,19 @@
         <v>33227</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23256</v>
+        <v>23629</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>44980</v>
+        <v>47042</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0436328681818775</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03053899219869756</v>
+        <v>0.03102858194864689</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05906540230525555</v>
+        <v>0.06177393135700228</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>40</v>
@@ -5813,19 +5813,19 @@
         <v>44232</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>32408</v>
+        <v>32603</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>58959</v>
+        <v>59854</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03482586463502217</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0255164332588692</v>
+        <v>0.02566946639605579</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04642119232928984</v>
+        <v>0.04712551759804805</v>
       </c>
     </row>
     <row r="30">
@@ -5842,19 +5842,19 @@
         <v>10222</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5144</v>
+        <v>5059</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18215</v>
+        <v>18334</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02010022724626499</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01011539624931074</v>
+        <v>0.009947071886048275</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0358162952109083</v>
+        <v>0.03604947369802222</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -5863,19 +5863,19 @@
         <v>34941</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>23182</v>
+        <v>24137</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>48496</v>
+        <v>49666</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04588263727784545</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03044132888306735</v>
+        <v>0.03169617843871663</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0636825026447875</v>
+        <v>0.06521917339347102</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>40</v>
@@ -5884,19 +5884,19 @@
         <v>45163</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>33011</v>
+        <v>32215</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>62258</v>
+        <v>61962</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03555884340578583</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02599098833067998</v>
+        <v>0.02536422824869989</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04901872392849231</v>
+        <v>0.0487854744935929</v>
       </c>
     </row>
     <row r="31">
@@ -5913,19 +5913,19 @@
         <v>182883</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>162088</v>
+        <v>162746</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>205681</v>
+        <v>206573</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3596023465319039</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3187134877284957</v>
+        <v>0.3200066592549514</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4044296559197322</v>
+        <v>0.4061845416826136</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>112</v>
@@ -5934,19 +5934,19 @@
         <v>120827</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>102081</v>
+        <v>102395</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>142067</v>
+        <v>142209</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1586654363401211</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1340488124657547</v>
+        <v>0.1344606558943846</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1865566904986068</v>
+        <v>0.1867429634378593</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>293</v>
@@ -5955,19 +5955,19 @@
         <v>303710</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>274258</v>
+        <v>273012</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>335266</v>
+        <v>335109</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2391246036393605</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.215935534559258</v>
+        <v>0.2149545913694068</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2639697738973624</v>
+        <v>0.263846538068258</v>
       </c>
     </row>
     <row r="32">
@@ -5984,19 +5984,19 @@
         <v>279407</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>257344</v>
+        <v>255293</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>302231</v>
+        <v>301232</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5493966410638296</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5060139916455374</v>
+        <v>0.5019825806880548</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5942758720560906</v>
+        <v>0.5923109525755718</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>437</v>
@@ -6005,19 +6005,19 @@
         <v>473900</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>444976</v>
+        <v>444849</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>502548</v>
+        <v>498769</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.62230660531868</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5843247443474306</v>
+        <v>0.584157796625583</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6599256631104624</v>
+        <v>0.6549640012510634</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>699</v>
@@ -6026,19 +6026,19 @@
         <v>753307</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>715946</v>
+        <v>718515</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>786733</v>
+        <v>789379</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5931119939047612</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5636965245070159</v>
+        <v>0.5657187765211983</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.619430196498242</v>
+        <v>0.6215131327312485</v>
       </c>
     </row>
     <row r="33">
@@ -6143,19 +6143,19 @@
         <v>228878</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>200536</v>
+        <v>203586</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>254218</v>
+        <v>256890</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.206316857051264</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1807686411429971</v>
+        <v>0.1835180954925902</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2291590522257303</v>
+        <v>0.2315674188581812</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>213</v>
@@ -6164,19 +6164,19 @@
         <v>228878</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>202420</v>
+        <v>203251</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>257341</v>
+        <v>260391</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1663074742360021</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.147082782310957</v>
+        <v>0.1476868130249391</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.186989376132839</v>
+        <v>0.1892053658281755</v>
       </c>
     </row>
     <row r="35">
@@ -6206,19 +6206,19 @@
         <v>8676</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4305</v>
+        <v>4272</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>16923</v>
+        <v>16681</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.007821025073121966</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003880418874842261</v>
+        <v>0.003850856745245186</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01525503497324608</v>
+        <v>0.01503686027272527</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -6227,19 +6227,19 @@
         <v>8676</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4257</v>
+        <v>3401</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>16309</v>
+        <v>16065</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.006304356049414669</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.003093105092746105</v>
+        <v>0.002470896063521559</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01185040931757458</v>
+        <v>0.01167292574485957</v>
       </c>
     </row>
     <row r="36">
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6203</v>
+        <v>5225</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.003899336478603035</v>
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02324112457229867</v>
+        <v>0.01957727200926303</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -6277,19 +6277,19 @@
         <v>5935</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>2107</v>
+        <v>2036</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>13251</v>
+        <v>12538</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.005349999430907805</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.001899668596567559</v>
+        <v>0.001835720481972922</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01194506770221805</v>
+        <v>0.01130208564397163</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -6298,19 +6298,19 @@
         <v>6976</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>3005</v>
+        <v>2968</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>13886</v>
+        <v>13451</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005068683932871413</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002183390123261647</v>
+        <v>0.002156457361493439</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01008996992560038</v>
+        <v>0.009774054440798704</v>
       </c>
     </row>
     <row r="37">
@@ -6327,19 +6327,19 @@
         <v>263561</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>257219</v>
+        <v>256377</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>265858</v>
+        <v>265857</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9875580486696078</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9637914633855182</v>
+        <v>0.9606384573180644</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9961619653111807</v>
+        <v>0.9961595347186556</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>254</v>
@@ -6348,19 +6348,19 @@
         <v>261807</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>234428</v>
+        <v>234312</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>291499</v>
+        <v>292066</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2359997402862964</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2113198426112006</v>
+        <v>0.211214957751821</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2627653420442754</v>
+        <v>0.2632768326515796</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>516</v>
@@ -6369,19 +6369,19 @@
         <v>525368</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>489092</v>
+        <v>489509</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>565699</v>
+        <v>560445</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3817434497333008</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.35538485706048</v>
+        <v>0.3556878053708278</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4110492183925017</v>
+        <v>0.4072313209204457</v>
       </c>
     </row>
     <row r="38">
@@ -6401,7 +6401,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8104</v>
+        <v>8071</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.008542614851789143</v>
@@ -6410,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03036676266420154</v>
+        <v>0.03024174025657545</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>563</v>
@@ -6419,19 +6419,19 @@
         <v>604055</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>570799</v>
+        <v>571757</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>638313</v>
+        <v>640848</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5445123781584098</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5145343486350126</v>
+        <v>0.5153979502436026</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5753928344056662</v>
+        <v>0.5776786163565008</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>565</v>
@@ -6440,19 +6440,19 @@
         <v>606335</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>569875</v>
+        <v>569445</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>641502</v>
+        <v>645313</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.440576036048411</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4140830835296773</v>
+        <v>0.4137710829731321</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4661289545673052</v>
+        <v>0.4688982280034854</v>
       </c>
     </row>
     <row r="39">
@@ -6544,19 +6544,19 @@
         <v>122708</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>102027</v>
+        <v>100336</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>147512</v>
+        <v>144872</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.03593222290905787</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02987626131943134</v>
+        <v>0.02938130944960592</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.04319553950639386</v>
+        <v>0.0424224889573486</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>398</v>
@@ -6565,19 +6565,19 @@
         <v>426087</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>387907</v>
+        <v>389969</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>468767</v>
+        <v>466271</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1200520649180048</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1092947107157806</v>
+        <v>0.1098756754922996</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1320773666733118</v>
+        <v>0.1313741055244023</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>510</v>
@@ -6586,19 +6586,19 @@
         <v>548795</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>506512</v>
+        <v>502905</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>595602</v>
+        <v>594674</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07880272408552552</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07273122035056985</v>
+        <v>0.07221336621593577</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08552396435414859</v>
+        <v>0.08539063250607598</v>
       </c>
     </row>
     <row r="41">
@@ -6615,19 +6615,19 @@
         <v>83506</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>65414</v>
+        <v>65101</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>104331</v>
+        <v>104555</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0244529767117167</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01915500779340391</v>
+        <v>0.01906332396341272</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0305509495041219</v>
+        <v>0.03061670972137302</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>108</v>
@@ -6636,19 +6636,19 @@
         <v>116401</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>95128</v>
+        <v>96283</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>138798</v>
+        <v>139765</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03279652782589363</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0268028631184687</v>
+        <v>0.02712806065242228</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03910690274194139</v>
+        <v>0.03937952854126769</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>178</v>
@@ -6657,19 +6657,19 @@
         <v>199907</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>170271</v>
+        <v>173606</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>228957</v>
+        <v>229310</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02870515086366288</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02444960041403989</v>
+        <v>0.02492844412602208</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03287640989745716</v>
+        <v>0.03292712470635736</v>
       </c>
     </row>
     <row r="42">
@@ -6686,19 +6686,19 @@
         <v>55082</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>41496</v>
+        <v>40913</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>71157</v>
+        <v>72555</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01612953852698498</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01215124523208889</v>
+        <v>0.01198046188854992</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0208366382901049</v>
+        <v>0.02124617517737254</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>71</v>
@@ -6707,19 +6707,19 @@
         <v>78929</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>61759</v>
+        <v>62032</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>99309</v>
+        <v>98328</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02223868546536834</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01740084391608213</v>
+        <v>0.01747777781176579</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02798075799497557</v>
+        <v>0.02770435519743662</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>123</v>
@@ -6728,19 +6728,19 @@
         <v>134011</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>112754</v>
+        <v>112006</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>164263</v>
+        <v>158627</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0192429798358895</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.01619057381539523</v>
+        <v>0.01608327586548079</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02358690842652702</v>
+        <v>0.02277756552940839</v>
       </c>
     </row>
     <row r="43">
@@ -6757,19 +6757,19 @@
         <v>1140693</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1086133</v>
+        <v>1086913</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1199650</v>
+        <v>1193728</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3340269291848368</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3180502989335608</v>
+        <v>0.3182786365858417</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3512911651521206</v>
+        <v>0.3495570383745605</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>784</v>
@@ -6778,19 +6778,19 @@
         <v>836717</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>786061</v>
+        <v>786708</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>887515</v>
+        <v>890702</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2357489421093241</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2214763683434718</v>
+        <v>0.2216588409386947</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2500615349357765</v>
+        <v>0.2509594513176255</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1878</v>
@@ -6799,19 +6799,19 @@
         <v>1977410</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1906500</v>
+        <v>1901527</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2055368</v>
+        <v>2053662</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2839409273579013</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2737587711214396</v>
+        <v>0.273044730315811</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2951351016382905</v>
+        <v>0.2948902318767694</v>
       </c>
     </row>
     <row r="44">
@@ -6828,19 +6828,19 @@
         <v>2012984</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1949134</v>
+        <v>1955425</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2071520</v>
+        <v>2072899</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5894583326674037</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5707610944878827</v>
+        <v>0.5726032910067549</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6065990988316797</v>
+        <v>0.6070029536738121</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1928</v>
@@ -6849,19 +6849,19 @@
         <v>2091052</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2030803</v>
+        <v>2028749</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>2152264</v>
+        <v>2147794</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5891637796814091</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.5721885016839219</v>
+        <v>0.5716097378566408</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.6064105754105379</v>
+        <v>0.6051512095758824</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3798</v>
@@ -6870,19 +6870,19 @@
         <v>4104036</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>4020490</v>
+        <v>4016103</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>4184748</v>
+        <v>4189881</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5893082178570208</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.5773116811782694</v>
+        <v>0.5766816290177558</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.6008977978291359</v>
+        <v>0.6016348654307485</v>
       </c>
     </row>
     <row r="45">
@@ -7216,19 +7216,19 @@
         <v>21556</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12297</v>
+        <v>13654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32366</v>
+        <v>34625</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05033846625000044</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02871590927622488</v>
+        <v>0.03188424151188313</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07558069464717936</v>
+        <v>0.08085549490970577</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -7237,19 +7237,19 @@
         <v>28218</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17944</v>
+        <v>17325</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42897</v>
+        <v>41520</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08130798166583161</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05170392139827586</v>
+        <v>0.04992058285934657</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1236040479654058</v>
+        <v>0.1196337858298046</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -7258,19 +7258,19 @@
         <v>49775</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35841</v>
+        <v>35239</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67235</v>
+        <v>67758</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0642019703697588</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04623003665974144</v>
+        <v>0.04545360967715909</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08672269808096965</v>
+        <v>0.08739847936024825</v>
       </c>
     </row>
     <row r="5">
@@ -7287,19 +7287,19 @@
         <v>12583</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6315</v>
+        <v>6729</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23586</v>
+        <v>23103</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02938505566534323</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01474740945778474</v>
+        <v>0.01571370139766339</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05507888410691502</v>
+        <v>0.05395134667297227</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -7308,19 +7308,19 @@
         <v>16283</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9135</v>
+        <v>9765</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26178</v>
+        <v>26396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04691813613544832</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02632127448407804</v>
+        <v>0.02813656728356576</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07542909439161749</v>
+        <v>0.0760561459321073</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -7329,19 +7329,19 @@
         <v>28867</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19378</v>
+        <v>19468</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>41950</v>
+        <v>41102</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03723373944568752</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02499454488600153</v>
+        <v>0.02511090995934399</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05410955028101441</v>
+        <v>0.05301507666517632</v>
       </c>
     </row>
     <row r="6">
@@ -7358,19 +7358,19 @@
         <v>18261</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10317</v>
+        <v>10826</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28777</v>
+        <v>31022</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04264391446152111</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02409262935302863</v>
+        <v>0.02528137495882059</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06720146734712978</v>
+        <v>0.07244309030737633</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -7379,19 +7379,19 @@
         <v>11454</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5731</v>
+        <v>6113</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19507</v>
+        <v>19648</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03300228555102101</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01651451778036019</v>
+        <v>0.01761386230321024</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05620753734210786</v>
+        <v>0.05661218140414181</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -7400,19 +7400,19 @@
         <v>29715</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18778</v>
+        <v>21006</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>43810</v>
+        <v>44055</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03832783911041727</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0242208807217364</v>
+        <v>0.02709472405582969</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05650875675497428</v>
+        <v>0.05682436313028028</v>
       </c>
     </row>
     <row r="7">
@@ -7429,19 +7429,19 @@
         <v>137221</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>118437</v>
+        <v>116923</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>157306</v>
+        <v>157614</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3204392096721338</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2765742003278646</v>
+        <v>0.2730398930356455</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3673428922592853</v>
+        <v>0.3680612450635505</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>104</v>
@@ -7450,19 +7450,19 @@
         <v>104273</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86239</v>
+        <v>89102</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121135</v>
+        <v>121891</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3004501272006028</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2484876453113183</v>
+        <v>0.2567387453111848</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3490363549600692</v>
+        <v>0.35121383469266</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>231</v>
@@ -7471,19 +7471,19 @@
         <v>241493</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>216969</v>
+        <v>214762</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>268358</v>
+        <v>265998</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3114910965527209</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.279858156250307</v>
+        <v>0.2770112748179437</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3461429409642533</v>
+        <v>0.3430981270479355</v>
       </c>
     </row>
     <row r="8">
@@ -7500,19 +7500,19 @@
         <v>238605</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>217037</v>
+        <v>217039</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>257745</v>
+        <v>261246</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5571933539510014</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5068267179089495</v>
+        <v>0.5068320223514944</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6018881362370474</v>
+        <v>0.6100637069680199</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>181</v>
@@ -7521,19 +7521,19 @@
         <v>186827</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>168646</v>
+        <v>167980</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>206754</v>
+        <v>205139</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5383214694470962</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4859334463731712</v>
+        <v>0.4840167867256666</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5957376570400817</v>
+        <v>0.5910859127746083</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>405</v>
@@ -7542,19 +7542,19 @@
         <v>425432</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>397206</v>
+        <v>397347</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>452812</v>
+        <v>455853</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5487453545214155</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5123373052333261</v>
+        <v>0.5125195567961783</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5840614726505824</v>
+        <v>0.5879829107102836</v>
       </c>
     </row>
     <row r="9">
@@ -7646,19 +7646,19 @@
         <v>6357</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2718</v>
+        <v>2746</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12205</v>
+        <v>12827</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01685065507645137</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007205783331564569</v>
+        <v>0.0072790112708414</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03235331964096468</v>
+        <v>0.03400415743470625</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -7667,19 +7667,19 @@
         <v>13596</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7838</v>
+        <v>7051</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24184</v>
+        <v>23695</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03652214650577478</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02105380401922471</v>
+        <v>0.01893965273594867</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06496222957665071</v>
+        <v>0.06364951116064486</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -7688,19 +7688,19 @@
         <v>19953</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11599</v>
+        <v>12071</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31042</v>
+        <v>32137</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0266213926821663</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01547535471737499</v>
+        <v>0.01610536935234019</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04141672037090715</v>
+        <v>0.04287728599270516</v>
       </c>
     </row>
     <row r="11">
@@ -7717,19 +7717,19 @@
         <v>11866</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6393</v>
+        <v>5818</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21912</v>
+        <v>22050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03145457922611014</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01694657003945542</v>
+        <v>0.01542261058087391</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05808626362318399</v>
+        <v>0.05845162257462488</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -7738,19 +7738,19 @@
         <v>23753</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15087</v>
+        <v>15427</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35106</v>
+        <v>35811</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06380448520348421</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04052668500748431</v>
+        <v>0.04143888825827678</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0943010356991371</v>
+        <v>0.09619553455545628</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>32</v>
@@ -7759,19 +7759,19 @@
         <v>35618</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25146</v>
+        <v>24961</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48652</v>
+        <v>50552</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04752262592252387</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0335504772626903</v>
+        <v>0.03330405662781637</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0649123063825406</v>
+        <v>0.06744759834957477</v>
       </c>
     </row>
     <row r="12">
@@ -7788,19 +7788,19 @@
         <v>5058</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1970</v>
+        <v>1851</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11566</v>
+        <v>11722</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01340821908308946</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005223067235041935</v>
+        <v>0.004907157505794411</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03066009384000941</v>
+        <v>0.03107347726816178</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>13</v>
@@ -7809,19 +7809,19 @@
         <v>13679</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7750</v>
+        <v>8006</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22168</v>
+        <v>22547</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03674541562121288</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02081900938369435</v>
+        <v>0.02150489426455506</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05954831289481363</v>
+        <v>0.06056472456081289</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -7830,19 +7830,19 @@
         <v>18737</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11652</v>
+        <v>11585</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28971</v>
+        <v>28746</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02499969523761738</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01554587397999218</v>
+        <v>0.01545763815343419</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03865391471342823</v>
+        <v>0.03835295648790672</v>
       </c>
     </row>
     <row r="13">
@@ -7859,19 +7859,19 @@
         <v>106347</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89423</v>
+        <v>88777</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125104</v>
+        <v>123577</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2819179822480141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.237053497035144</v>
+        <v>0.2353402734738735</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3316414189963093</v>
+        <v>0.327593064761621</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -7880,19 +7880,19 @@
         <v>102947</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85973</v>
+        <v>86675</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120846</v>
+        <v>121200</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2765368504005912</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.230940690056598</v>
+        <v>0.2328258927381055</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3246172221535769</v>
+        <v>0.3255684904962296</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>197</v>
@@ -7901,19 +7901,19 @@
         <v>209294</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>186172</v>
+        <v>186477</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>238474</v>
+        <v>237813</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2792451992771942</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2483951198261707</v>
+        <v>0.2488020092555797</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3181771723979693</v>
+        <v>0.3172961462548508</v>
       </c>
     </row>
     <row r="14">
@@ -7930,19 +7930,19 @@
         <v>247600</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>227963</v>
+        <v>229602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>264852</v>
+        <v>265307</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.656368564366335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6043118452499243</v>
+        <v>0.6086565551629982</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7021013490550656</v>
+        <v>0.7033079132399218</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>209</v>
@@ -7951,19 +7951,19 @@
         <v>218298</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>200281</v>
+        <v>197955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>240128</v>
+        <v>236605</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.586391102268937</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5379938662080817</v>
+        <v>0.531745907985769</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6450322696021795</v>
+        <v>0.6355686570837304</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>441</v>
@@ -7972,19 +7972,19 @@
         <v>465898</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>434908</v>
+        <v>436894</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>490496</v>
+        <v>491252</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6216110868804983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5802644415518451</v>
+        <v>0.5829136341877431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6544312138755454</v>
+        <v>0.6554392301715715</v>
       </c>
     </row>
     <row r="15">
@@ -8076,19 +8076,19 @@
         <v>25309</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17681</v>
+        <v>17682</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>35236</v>
+        <v>36522</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04849259260486142</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03387750144639518</v>
+        <v>0.03387926215924947</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06751341815790668</v>
+        <v>0.06997643257795165</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -8097,19 +8097,19 @@
         <v>17365</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9133</v>
+        <v>9503</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27971</v>
+        <v>27530</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1045307861995437</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05497625310357131</v>
+        <v>0.05720203161448</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1683754980702456</v>
+        <v>0.1657234638668504</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>42</v>
@@ -8118,19 +8118,19 @@
         <v>42674</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33106</v>
+        <v>31510</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58092</v>
+        <v>57310</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06202272062552283</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04811712182252776</v>
+        <v>0.04579725910246006</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08443230488434141</v>
+        <v>0.0832954838889729</v>
       </c>
     </row>
     <row r="17">
@@ -8147,19 +8147,19 @@
         <v>22457</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14035</v>
+        <v>13817</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34680</v>
+        <v>34535</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04302806026518143</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02689051395299165</v>
+        <v>0.02647343751790383</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06644727284255046</v>
+        <v>0.06617045421902418</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -8168,19 +8168,19 @@
         <v>11406</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5490</v>
+        <v>5824</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19598</v>
+        <v>20355</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06865976147531296</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0330452878009868</v>
+        <v>0.03505540977163282</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1179701559721581</v>
+        <v>0.1225310544208633</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>29</v>
@@ -8189,19 +8189,19 @@
         <v>33863</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>22501</v>
+        <v>23754</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47922</v>
+        <v>49055</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04921670012871428</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03270385108132015</v>
+        <v>0.03452421596622725</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06965008066274114</v>
+        <v>0.07129727898076596</v>
       </c>
     </row>
     <row r="18">
@@ -8218,19 +8218,19 @@
         <v>14979</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8036</v>
+        <v>8405</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23974</v>
+        <v>24026</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02870057795168929</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01539669064576976</v>
+        <v>0.01610395149294046</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04593476423707481</v>
+        <v>0.04603419088549543</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -8239,19 +8239,19 @@
         <v>8191</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3994</v>
+        <v>3938</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14879</v>
+        <v>15776</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.04930801973040325</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02404422719739334</v>
+        <v>0.02370634097730689</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0895667697580901</v>
+        <v>0.09496503602789355</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -8260,19 +8260,19 @@
         <v>23170</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>15034</v>
+        <v>15060</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>33304</v>
+        <v>34793</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0336761367190009</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02185117573901381</v>
+        <v>0.02188783964987567</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0484040252302597</v>
+        <v>0.05056830303412675</v>
       </c>
     </row>
     <row r="19">
@@ -8289,19 +8289,19 @@
         <v>99213</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82175</v>
+        <v>81178</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118919</v>
+        <v>118224</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.190093894582351</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1574498370498417</v>
+        <v>0.1555391881068458</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.227851392843214</v>
+        <v>0.2265209695981939</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -8310,19 +8310,19 @@
         <v>32411</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23224</v>
+        <v>23483</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>43482</v>
+        <v>43421</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1951020737950429</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1397997673962321</v>
+        <v>0.1413606510898775</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2617444487687958</v>
+        <v>0.2613796706507101</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>128</v>
@@ -8331,19 +8331,19 @@
         <v>131623</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113090</v>
+        <v>112040</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>154967</v>
+        <v>153063</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1913030931940737</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.164366285702222</v>
+        <v>0.1628397696649431</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2252306359683454</v>
+        <v>0.2224632037061339</v>
       </c>
     </row>
     <row r="20">
@@ -8360,19 +8360,19 @@
         <v>359956</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>338986</v>
+        <v>338805</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>379423</v>
+        <v>380801</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6896848745959169</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6495054125393522</v>
+        <v>0.6491588166353128</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7269829441570026</v>
+        <v>0.7296241177452827</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>90</v>
@@ -8381,19 +8381,19 @@
         <v>96750</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83133</v>
+        <v>82773</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>109158</v>
+        <v>109442</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5823993587996973</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5004275596484031</v>
+        <v>0.4982635589279397</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.657090309368919</v>
+        <v>0.6587996414183278</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>434</v>
@@ -8402,19 +8402,19 @@
         <v>456705</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>430607</v>
+        <v>429973</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>481177</v>
+        <v>480677</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6637813493326883</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6258499062829793</v>
+        <v>0.6249286097695961</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6993481374029895</v>
+        <v>0.6986214258854756</v>
       </c>
     </row>
     <row r="21">
@@ -8506,19 +8506,19 @@
         <v>41957</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30424</v>
+        <v>31426</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>54601</v>
+        <v>55565</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03649562566954446</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02646418640601695</v>
+        <v>0.02733594430108878</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04749429368327029</v>
+        <v>0.04833281294032643</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>52</v>
@@ -8527,19 +8527,19 @@
         <v>59716</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46345</v>
+        <v>45444</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77918</v>
+        <v>77557</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07240851967193432</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05619612796722625</v>
+        <v>0.05510309290271622</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09447977922953979</v>
+        <v>0.09404248693095042</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>96</v>
@@ -8548,19 +8548,19 @@
         <v>101673</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>82707</v>
+        <v>83005</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>124400</v>
+        <v>123948</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05149685993069918</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04189075974193368</v>
+        <v>0.04204191201256591</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06300819863018964</v>
+        <v>0.06277939352891977</v>
       </c>
     </row>
     <row r="23">
@@ -8577,19 +8577,19 @@
         <v>33593</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23160</v>
+        <v>23548</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>47167</v>
+        <v>47373</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02922034969522091</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02014553257187189</v>
+        <v>0.02048304570945284</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04102782392632206</v>
+        <v>0.04120723393048005</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>43</v>
@@ -8598,19 +8598,19 @@
         <v>44656</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>32329</v>
+        <v>31826</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>58306</v>
+        <v>57547</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05414811254568416</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0392010428459423</v>
+        <v>0.03859098239473721</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07069850605800448</v>
+        <v>0.06977869559115361</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>74</v>
@@ -8619,19 +8619,19 @@
         <v>78249</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>62372</v>
+        <v>62061</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>97462</v>
+        <v>97786</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03963296668179472</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0315910181930444</v>
+        <v>0.03143376648049129</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04936429219986815</v>
+        <v>0.0495284818351639</v>
       </c>
     </row>
     <row r="24">
@@ -8648,19 +8648,19 @@
         <v>41905</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29986</v>
+        <v>28566</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>56366</v>
+        <v>54947</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03645030708998456</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02608338270708219</v>
+        <v>0.02484775451717364</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04902977987765014</v>
+        <v>0.04779501464689792</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>36</v>
@@ -8669,19 +8669,19 @@
         <v>36265</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26687</v>
+        <v>26339</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49454</v>
+        <v>48055</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04397265866720917</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03235884879158168</v>
+        <v>0.03193719667445265</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05996580379158335</v>
+        <v>0.0582691367574636</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>75</v>
@@ -8690,19 +8690,19 @@
         <v>78169</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>62855</v>
+        <v>63165</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>96896</v>
+        <v>97838</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03959248098989927</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0318357409168569</v>
+        <v>0.03199278479585476</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0490774896067642</v>
+        <v>0.04955487629235882</v>
       </c>
     </row>
     <row r="25">
@@ -8719,19 +8719,19 @@
         <v>299326</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>271405</v>
+        <v>269386</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>329176</v>
+        <v>327852</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2603653688334435</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2360786783365688</v>
+        <v>0.2343222258133711</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2863303348673409</v>
+        <v>0.2851787714230234</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>282</v>
@@ -8740,19 +8740,19 @@
         <v>281753</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>255782</v>
+        <v>253314</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>308505</v>
+        <v>308211</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3416396571536977</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.310148740578069</v>
+        <v>0.3071567680672554</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3740779891978162</v>
+        <v>0.3737220737741601</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>569</v>
@@ -8761,19 +8761,19 @@
         <v>581079</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>540025</v>
+        <v>539162</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>621167</v>
+        <v>623805</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2943145860260103</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2735209774702082</v>
+        <v>0.273084190817641</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.31461923552032</v>
+        <v>0.3159552428426654</v>
       </c>
     </row>
     <row r="26">
@@ -8790,19 +8790,19 @@
         <v>732858</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>700525</v>
+        <v>700581</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>763938</v>
+        <v>767077</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6374683487118066</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.609343745438811</v>
+        <v>0.6093929042546091</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6645029748000981</v>
+        <v>0.6672334590375061</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>384</v>
@@ -8811,19 +8811,19 @@
         <v>402318</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>370497</v>
+        <v>373409</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>428043</v>
+        <v>431606</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4878310519614747</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4492472169675598</v>
+        <v>0.4527778002037619</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5190246450688396</v>
+        <v>0.5233449706489457</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1086</v>
@@ -8832,19 +8832,19 @@
         <v>1135176</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1091343</v>
+        <v>1088305</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1178714</v>
+        <v>1180923</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5749631063715965</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5527622164852287</v>
+        <v>0.5512234094087006</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.597014992582922</v>
+        <v>0.5981339456220662</v>
       </c>
     </row>
     <row r="27">
@@ -8936,19 +8936,19 @@
         <v>48857</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>38026</v>
+        <v>37837</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>64211</v>
+        <v>63121</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07871240532895576</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06126328080167845</v>
+        <v>0.06095852370038719</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1034477555488881</v>
+        <v>0.1016919760158485</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>91</v>
@@ -8957,19 +8957,19 @@
         <v>106994</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>89585</v>
+        <v>88210</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>128969</v>
+        <v>128937</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1451364548438861</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1215212070925865</v>
+        <v>0.1196559315726105</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1749457188090074</v>
+        <v>0.1749024838076978</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>145</v>
@@ -8978,19 +8978,19 @@
         <v>155851</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>133095</v>
+        <v>134200</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>180474</v>
+        <v>181023</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1147735504655545</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09801531538280436</v>
+        <v>0.09882877385508591</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1329067208402362</v>
+        <v>0.1333111830943103</v>
       </c>
     </row>
     <row r="29">
@@ -9007,19 +9007,19 @@
         <v>8935</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4419</v>
+        <v>3595</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16487</v>
+        <v>16149</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01439486726138879</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007119984710531962</v>
+        <v>0.005791216997959476</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02656112557870622</v>
+        <v>0.02601794577315284</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>46</v>
@@ -9028,19 +9028,19 @@
         <v>50736</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>36816</v>
+        <v>36723</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>67773</v>
+        <v>64367</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06882274319677396</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04994114681084623</v>
+        <v>0.04981475845894127</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09193385034630198</v>
+        <v>0.0873134069958994</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>55</v>
@@ -9049,19 +9049,19 @@
         <v>59671</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>45244</v>
+        <v>46059</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>77229</v>
+        <v>79011</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04394337488650049</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03331878580357524</v>
+        <v>0.03391911998299598</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05687411622294162</v>
+        <v>0.05818623174464065</v>
       </c>
     </row>
     <row r="30">
@@ -9078,19 +9078,19 @@
         <v>16801</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9998</v>
+        <v>9397</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>25886</v>
+        <v>27093</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0270680052997315</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01610720169798469</v>
+        <v>0.01513890409822788</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04170461960648086</v>
+        <v>0.04364931969197784</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>25</v>
@@ -9099,19 +9099,19 @@
         <v>26191</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17556</v>
+        <v>17134</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>38605</v>
+        <v>38208</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03552825692723539</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02381449632599528</v>
+        <v>0.02324183088022341</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05236752794243365</v>
+        <v>0.05182949804287297</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>40</v>
@@ -9120,19 +9120,19 @@
         <v>42992</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>31279</v>
+        <v>31506</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>58003</v>
+        <v>59135</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03166101587435761</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02303512034817235</v>
+        <v>0.02320209555694767</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.04271524431197838</v>
+        <v>0.04354886476610616</v>
       </c>
     </row>
     <row r="31">
@@ -9149,19 +9149,19 @@
         <v>230602</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>206313</v>
+        <v>206947</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>255517</v>
+        <v>253578</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3715156550357814</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3323849323965124</v>
+        <v>0.3334058562756426</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4116550787519589</v>
+        <v>0.4085319363194321</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>135</v>
@@ -9170,19 +9170,19 @@
         <v>135218</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>115751</v>
+        <v>115496</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>156296</v>
+        <v>158210</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.183421976842241</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1570159679217506</v>
+        <v>0.1566700532366389</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2120148038969462</v>
+        <v>0.214611008780104</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>351</v>
@@ -9191,19 +9191,19 @@
         <v>365820</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>334236</v>
+        <v>333358</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>400393</v>
+        <v>403071</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2694009318572532</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2461416617722581</v>
+        <v>0.2454951165211275</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2948620646321424</v>
+        <v>0.2968338190956499</v>
       </c>
     </row>
     <row r="32">
@@ -9220,19 +9220,19 @@
         <v>315510</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>290332</v>
+        <v>292259</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>339738</v>
+        <v>342258</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5083090670741426</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.467744737847292</v>
+        <v>0.4708493575368086</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5473404971857805</v>
+        <v>0.5514010098700201</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>401</v>
@@ -9241,19 +9241,19 @@
         <v>418056</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>389368</v>
+        <v>389594</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>444742</v>
+        <v>444991</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5670905681898635</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5281757473026845</v>
+        <v>0.5284826529772291</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6032898809405334</v>
+        <v>0.6036278778461581</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>704</v>
@@ -9262,19 +9262,19 @@
         <v>733566</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>695327</v>
+        <v>694158</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>769084</v>
+        <v>770864</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5402211269163342</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5120606315128631</v>
+        <v>0.511199360478362</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5663778313676194</v>
+        <v>0.567688297315003</v>
       </c>
     </row>
     <row r="33">
@@ -9379,19 +9379,19 @@
         <v>210315</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>179995</v>
+        <v>181692</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>238544</v>
+        <v>239217</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1947235314861701</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1666512666343886</v>
+        <v>0.1682217487949294</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2208591642398894</v>
+        <v>0.2214825707736229</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>172</v>
@@ -9400,19 +9400,19 @@
         <v>210315</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>180634</v>
+        <v>183606</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>238799</v>
+        <v>237786</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1538273756595691</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1321179056939762</v>
+        <v>0.1342916087325862</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1746606509937875</v>
+        <v>0.1739196184023107</v>
       </c>
     </row>
     <row r="35">
@@ -9442,19 +9442,19 @@
         <v>12248</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>6532</v>
+        <v>6248</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>21318</v>
+        <v>21199</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01133957241084644</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.006047722575477758</v>
+        <v>0.00578525019792783</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01973799848261327</v>
+        <v>0.01962727078677926</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>11</v>
@@ -9463,19 +9463,19 @@
         <v>12248</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>6455</v>
+        <v>6677</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>21696</v>
+        <v>21311</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.008958016793086198</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.004721610227536737</v>
+        <v>0.004883679289324031</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01586848393107133</v>
+        <v>0.01558727738079678</v>
       </c>
     </row>
     <row r="36">
@@ -9505,19 +9505,19 @@
         <v>8479</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3708</v>
+        <v>3908</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>15592</v>
+        <v>16249</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.007850363851415494</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.003433181114166559</v>
+        <v>0.003617895984745336</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01443650374856537</v>
+        <v>0.01504408042516759</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>8</v>
@@ -9526,19 +9526,19 @@
         <v>8479</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>4076</v>
+        <v>3897</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>15929</v>
+        <v>16272</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.006201617544727821</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002981185768145131</v>
+        <v>0.002850254291046347</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01165071489980031</v>
+        <v>0.01190187133332825</v>
       </c>
     </row>
     <row r="37">
@@ -9555,19 +9555,19 @@
         <v>283718</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>277904</v>
+        <v>277767</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>286123</v>
+        <v>286125</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9880668632711923</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9678184388758304</v>
+        <v>0.9673417638215428</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9964422343775117</v>
+        <v>0.9964462981507367</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>267</v>
@@ -9576,19 +9576,19 @@
         <v>263500</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>237023</v>
+        <v>236512</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>291563</v>
+        <v>291726</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2439648531363207</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2194509195959397</v>
+        <v>0.2189783505093737</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2699478960971112</v>
+        <v>0.2700986371446809</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>536</v>
@@ -9597,19 +9597,19 @@
         <v>547218</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>513439</v>
+        <v>509007</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>587067</v>
+        <v>582288</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4002423791502944</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3755358797237023</v>
+        <v>0.3722944200180971</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4293885709324535</v>
+        <v>0.4258928830161819</v>
       </c>
     </row>
     <row r="38">
@@ -9626,19 +9626,19 @@
         <v>3427</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>9241</v>
+        <v>9378</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01193313672880773</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.003557765622488416</v>
+        <v>0.003553701849263319</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.03218156112416967</v>
+        <v>0.03265823617845746</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>532</v>
@@ -9647,19 +9647,19 @@
         <v>585530</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>554990</v>
+        <v>554314</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>619194</v>
+        <v>622613</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5421216791152472</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.5138453894023148</v>
+        <v>0.5132195995956328</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5732892641805173</v>
+        <v>0.576455386536958</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>535</v>
@@ -9668,19 +9668,19 @@
         <v>588957</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>551459</v>
+        <v>551272</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>629926</v>
+        <v>626110</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4307706108523225</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4033444766034783</v>
+        <v>0.4032070296809414</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4607362133736239</v>
+        <v>0.4579448318636367</v>
       </c>
     </row>
     <row r="39">
@@ -9772,19 +9772,19 @@
         <v>144036</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>121338</v>
+        <v>122548</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>168939</v>
+        <v>167874</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04255298872723323</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03584728620312193</v>
+        <v>0.03620491602381185</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0499100961730847</v>
+        <v>0.04959552595634373</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>360</v>
@@ -9793,19 +9793,19 @@
         <v>436204</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>394288</v>
+        <v>398090</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>477210</v>
+        <v>481204</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1236609068127735</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1117779222023581</v>
+        <v>0.1128557735782367</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1352855912184438</v>
+        <v>0.1364179274034398</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>512</v>
@@ -9814,19 +9814,19 @@
         <v>580240</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>531484</v>
+        <v>530480</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>635085</v>
+        <v>632923</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08394338226241756</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07688978555255721</v>
+        <v>0.07674453997415373</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09187781700444952</v>
+        <v>0.09156497668153812</v>
       </c>
     </row>
     <row r="41">
@@ -9843,19 +9843,19 @@
         <v>89434</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>71522</v>
+        <v>70481</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>110850</v>
+        <v>111732</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02642171742788347</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02113006641739407</v>
+        <v>0.02082232729644012</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03274892049269611</v>
+        <v>0.03300938430592277</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>147</v>
@@ -9864,19 +9864,19 @@
         <v>159081</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>134164</v>
+        <v>136055</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>188707</v>
+        <v>184783</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04509847540519419</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03803462604949479</v>
+        <v>0.03857054988157129</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0534970076933428</v>
+        <v>0.05238480684446082</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>226</v>
@@ -9885,19 +9885,19 @@
         <v>248515</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>219460</v>
+        <v>219334</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>281526</v>
+        <v>285182</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03595270257568373</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03174932659590499</v>
+        <v>0.03173112052056981</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0407283599610916</v>
+        <v>0.04125727840324576</v>
       </c>
     </row>
     <row r="42">
@@ -9914,19 +9914,19 @@
         <v>97004</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>77764</v>
+        <v>78377</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>118514</v>
+        <v>117848</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02865833979073352</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02297418823165411</v>
+        <v>0.02315527081785299</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03501300566877536</v>
+        <v>0.03481619443570715</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>101</v>
@@ -9935,19 +9935,19 @@
         <v>104259</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>85637</v>
+        <v>84717</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>128818</v>
+        <v>126382</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.02955666075896658</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.02427749586242879</v>
+        <v>0.02401659306862204</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.03651901054842359</v>
+        <v>0.03582830213992669</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>190</v>
@@ -9956,19 +9956,19 @@
         <v>201263</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>173777</v>
+        <v>174904</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>232992</v>
+        <v>230857</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.02911676431048091</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02514037278834756</v>
+        <v>0.0253033665438494</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03370690745112324</v>
+        <v>0.03339809189573135</v>
       </c>
     </row>
     <row r="43">
@@ -9985,19 +9985,19 @@
         <v>1156427</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1103663</v>
+        <v>1099657</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1219539</v>
+        <v>1213720</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3416472082593782</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3260589441656059</v>
+        <v>0.3248755767466334</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3602926008104603</v>
+        <v>0.3585735553783561</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>917</v>
@@ -10006,19 +10006,19 @@
         <v>920101</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>869037</v>
+        <v>869010</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>979480</v>
+        <v>968732</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2608420946453726</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2463659163159926</v>
+        <v>0.2463582829572365</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2776758447184361</v>
+        <v>0.2746288659057686</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2012</v>
@@ -10027,19 +10027,19 @@
         <v>2076528</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1997935</v>
+        <v>1999765</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2145216</v>
+        <v>2154167</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3004113396649994</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2890413860676739</v>
+        <v>0.2893060821901272</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3103484446122232</v>
+        <v>0.3116433783012625</v>
       </c>
     </row>
     <row r="44">
@@ -10056,19 +10056,19 @@
         <v>1897956</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1837979</v>
+        <v>1839028</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1958204</v>
+        <v>1958134</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5607197457947716</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.5430003648759406</v>
+        <v>0.5433104793705309</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5785191006762482</v>
+        <v>0.5784983043938655</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1797</v>
@@ -10077,19 +10077,19 @@
         <v>1907779</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1848556</v>
+        <v>1845625</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1972088</v>
+        <v>1965469</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5408418623776932</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.524052706066681</v>
+        <v>0.5232217552793793</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5590730249751281</v>
+        <v>0.5571965991490361</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>3605</v>
@@ -10098,19 +10098,19 @@
         <v>3805735</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3719018</v>
+        <v>3720529</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3887395</v>
+        <v>3888639</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5505758111864184</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.538030524594637</v>
+        <v>0.5382491626371823</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5623895741330666</v>
+        <v>0.5625696046795783</v>
       </c>
     </row>
     <row r="45">
@@ -10444,19 +10444,19 @@
         <v>14508</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9419</v>
+        <v>9004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21257</v>
+        <v>21178</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02643155409982072</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01716138707201042</v>
+        <v>0.01640497775893399</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03872855776026764</v>
+        <v>0.03858535584444343</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -10465,19 +10465,19 @@
         <v>32433</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24258</v>
+        <v>24173</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41525</v>
+        <v>42369</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.06664829167379166</v>
+        <v>0.06664829167379165</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.049850039006887</v>
+        <v>0.04967423466207554</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08533304164477755</v>
+        <v>0.08706740306804622</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -10486,19 +10486,19 @@
         <v>46940</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37143</v>
+        <v>36869</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58726</v>
+        <v>58406</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04533114616820205</v>
+        <v>0.04533114616820204</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03586946288677605</v>
+        <v>0.03560537699160241</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05671263294865491</v>
+        <v>0.05640415066471236</v>
       </c>
     </row>
     <row r="5">
@@ -10515,19 +10515,19 @@
         <v>24252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16415</v>
+        <v>16951</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34855</v>
+        <v>35968</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04418462363423279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02990703274252985</v>
+        <v>0.0308839124233707</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06350267922682254</v>
+        <v>0.06553135382710898</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -10536,19 +10536,19 @@
         <v>40506</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30839</v>
+        <v>32243</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>51475</v>
+        <v>51711</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08323890100310968</v>
+        <v>0.08323890100310967</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06337276132869703</v>
+        <v>0.06625842500647813</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.105780567313603</v>
+        <v>0.1062643579207193</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>91</v>
@@ -10557,19 +10557,19 @@
         <v>64758</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53823</v>
+        <v>51895</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79252</v>
+        <v>78256</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06253792515302405</v>
+        <v>0.06253792515302403</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05197836220510335</v>
+        <v>0.05011644373670659</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07653555849684812</v>
+        <v>0.07557349721664272</v>
       </c>
     </row>
     <row r="6">
@@ -10586,19 +10586,19 @@
         <v>7977</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3964</v>
+        <v>3949</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14261</v>
+        <v>14115</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01453427130147666</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007221176831357418</v>
+        <v>0.00719537744040958</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02598252206561529</v>
+        <v>0.0257171025930304</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -10607,19 +10607,19 @@
         <v>17775</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12242</v>
+        <v>11642</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25565</v>
+        <v>25828</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.03652784830407222</v>
+        <v>0.03652784830407221</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02515599206015635</v>
+        <v>0.02392451814945376</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05253535060202971</v>
+        <v>0.05307561241497918</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -10628,19 +10628,19 @@
         <v>25753</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18598</v>
+        <v>18392</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35199</v>
+        <v>35287</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.02487000857278179</v>
+        <v>0.02487000857278178</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01796013171369948</v>
+        <v>0.01776118122200964</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03399199727856191</v>
+        <v>0.03407741671024321</v>
       </c>
     </row>
     <row r="7">
@@ -10657,19 +10657,19 @@
         <v>166018</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>143902</v>
+        <v>140638</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>192036</v>
+        <v>192865</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3024705204979772</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2621775517011974</v>
+        <v>0.2562303146015001</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3498736616085019</v>
+        <v>0.3513851328570188</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>162</v>
@@ -10678,19 +10678,19 @@
         <v>142260</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>124065</v>
+        <v>123245</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>162270</v>
+        <v>162233</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2923410480015423</v>
+        <v>0.2923410480015422</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2549490480011861</v>
+        <v>0.253265349599881</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3334596607896534</v>
+        <v>0.3333840465601409</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>294</v>
@@ -10699,19 +10699,19 @@
         <v>308278</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>278869</v>
+        <v>275573</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>340412</v>
+        <v>340466</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2977102413306682</v>
+        <v>0.2977102413306681</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2693092608470603</v>
+        <v>0.2661269255483302</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3287432016875067</v>
+        <v>0.3287953754388545</v>
       </c>
     </row>
     <row r="8">
@@ -10728,19 +10728,19 @@
         <v>336118</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>309905</v>
+        <v>310329</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>360274</v>
+        <v>361194</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6123790304664928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.564621473340526</v>
+        <v>0.5653932957989736</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6563890707697771</v>
+        <v>0.6580654875383771</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>374</v>
@@ -10749,19 +10749,19 @@
         <v>253650</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>232458</v>
+        <v>234284</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>272228</v>
+        <v>272831</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.5212439110174842</v>
+        <v>0.5212439110174841</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.477693809544978</v>
+        <v>0.4814472637094865</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5594210202305084</v>
+        <v>0.5606603903870846</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>737</v>
@@ -10770,19 +10770,19 @@
         <v>589767</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>553303</v>
+        <v>559735</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>617554</v>
+        <v>622959</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5695506787753242</v>
+        <v>0.5695506787753241</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5343365515279102</v>
+        <v>0.5405480835432661</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5963847561503903</v>
+        <v>0.6016043852972748</v>
       </c>
     </row>
     <row r="9">
@@ -10874,19 +10874,19 @@
         <v>21741</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14653</v>
+        <v>14332</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31068</v>
+        <v>31021</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04507230603990932</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03037868955894508</v>
+        <v>0.02971142549351747</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06440771857750509</v>
+        <v>0.06431135306015784</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -10895,19 +10895,19 @@
         <v>21535</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14695</v>
+        <v>15728</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28955</v>
+        <v>29018</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05119958976459289</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03493757622053932</v>
+        <v>0.0373941464376317</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06883994827074562</v>
+        <v>0.06899066418798074</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -10916,19 +10916,19 @@
         <v>43276</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33052</v>
+        <v>33551</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>54779</v>
+        <v>55417</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04792643325007605</v>
+        <v>0.04792643325007604</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.036603971191468</v>
+        <v>0.03715659794977958</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06066505294480196</v>
+        <v>0.06137212242605625</v>
       </c>
     </row>
     <row r="11">
@@ -10945,19 +10945,19 @@
         <v>17903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11273</v>
+        <v>10709</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>28237</v>
+        <v>27956</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03711464694363911</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02336979344246788</v>
+        <v>0.02220224382833716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05853906438859113</v>
+        <v>0.05795765680425266</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>58</v>
@@ -10966,19 +10966,19 @@
         <v>37107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>29113</v>
+        <v>28654</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47590</v>
+        <v>47355</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.08822177278248935</v>
+        <v>0.08822177278248934</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0692167833497649</v>
+        <v>0.06812449985022496</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1131458944114195</v>
+        <v>0.1125872555493626</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>77</v>
@@ -10987,19 +10987,19 @@
         <v>55009</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43554</v>
+        <v>44799</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68132</v>
+        <v>68844</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06092066687747373</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04823479982363964</v>
+        <v>0.04961257917043932</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.075453522701818</v>
+        <v>0.07624226458448369</v>
       </c>
     </row>
     <row r="12">
@@ -11016,19 +11016,19 @@
         <v>18194</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10535</v>
+        <v>11679</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28107</v>
+        <v>28476</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03771786013333697</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02183958473450722</v>
+        <v>0.02421120519570665</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05826996895742395</v>
+        <v>0.05903525643669163</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -11037,19 +11037,19 @@
         <v>13850</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8538</v>
+        <v>8385</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20150</v>
+        <v>20665</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03292896622465723</v>
+        <v>0.03292896622465722</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02029948753273323</v>
+        <v>0.01993445620488389</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0479059714783702</v>
+        <v>0.049131761483579</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -11058,19 +11058,19 @@
         <v>32044</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>22381</v>
+        <v>23326</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>42704</v>
+        <v>44132</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0354871632984078</v>
+        <v>0.03548716329840781</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02478573436976699</v>
+        <v>0.02583239804740872</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04729347922836415</v>
+        <v>0.04887441564726189</v>
       </c>
     </row>
     <row r="13">
@@ -11087,19 +11087,19 @@
         <v>146541</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>123122</v>
+        <v>122465</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>167918</v>
+        <v>171024</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.303799684202889</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2552496254448708</v>
+        <v>0.2538861185497988</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3481183141431688</v>
+        <v>0.3545567145140849</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -11108,19 +11108,19 @@
         <v>121609</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104888</v>
+        <v>104782</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>138571</v>
+        <v>140688</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2891256584647017</v>
+        <v>0.2891256584647016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.249372333451152</v>
+        <v>0.2491197044603974</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3294534476611115</v>
+        <v>0.3344861704425557</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>254</v>
@@ -11129,19 +11129,19 @@
         <v>268149</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>240531</v>
+        <v>239498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>296518</v>
+        <v>295955</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2969644309285336</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2663787100681579</v>
+        <v>0.2652336922391602</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3283816833248679</v>
+        <v>0.3277574679390341</v>
       </c>
     </row>
     <row r="14">
@@ -11158,19 +11158,19 @@
         <v>277982</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>254559</v>
+        <v>255254</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>301231</v>
+        <v>302794</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5762955026802256</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5277365248648778</v>
+        <v>0.5291763529004602</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6244936995129163</v>
+        <v>0.6277334981601481</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>326</v>
@@ -11179,19 +11179,19 @@
         <v>226508</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>210734</v>
+        <v>208138</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>245056</v>
+        <v>243844</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.538524012763559</v>
+        <v>0.5385240127635588</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5010233361802392</v>
+        <v>0.494850435331149</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5826225026539904</v>
+        <v>0.5797406040855713</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>627</v>
@@ -11200,19 +11200,19 @@
         <v>504489</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>476122</v>
+        <v>474464</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>534820</v>
+        <v>530420</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5587013056455087</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5272852561485388</v>
+        <v>0.5254497659509123</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5922913165369418</v>
+        <v>0.5874186515521536</v>
       </c>
     </row>
     <row r="15">
@@ -11304,19 +11304,19 @@
         <v>20833</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14710</v>
+        <v>14169</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29006</v>
+        <v>30063</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.04427785541262053</v>
+        <v>0.04427785541262055</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03126374113796831</v>
+        <v>0.03011491798927413</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06164841200708834</v>
+        <v>0.06389604853524621</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -11325,19 +11325,19 @@
         <v>25622</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19707</v>
+        <v>19468</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34407</v>
+        <v>33192</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1370736690765672</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1054262415005526</v>
+        <v>0.1041524924673358</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1840726375975101</v>
+        <v>0.1775679484818153</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -11346,19 +11346,19 @@
         <v>46455</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36783</v>
+        <v>36804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58191</v>
+        <v>58772</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07066218802999294</v>
+        <v>0.07066218802999293</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05594963207208881</v>
+        <v>0.05598208672789692</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08851407733786223</v>
+        <v>0.08939710395160928</v>
       </c>
     </row>
     <row r="17">
@@ -11375,19 +11375,19 @@
         <v>25437</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16663</v>
+        <v>16256</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>37982</v>
+        <v>37822</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05406383458091554</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03541489857059278</v>
+        <v>0.03455083602325953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08072590011588744</v>
+        <v>0.08038609934719403</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -11396,19 +11396,19 @@
         <v>14686</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9836</v>
+        <v>9906</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21603</v>
+        <v>21003</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07856602925254802</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05262219704234391</v>
+        <v>0.0529965190019141</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1155738888652487</v>
+        <v>0.1123622824726856</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>49</v>
@@ -11417,19 +11417,19 @@
         <v>40123</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30128</v>
+        <v>30060</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>55506</v>
+        <v>52998</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06103046409303039</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04582698976772053</v>
+        <v>0.0457246933861971</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08442896074089963</v>
+        <v>0.08061451828612694</v>
       </c>
     </row>
     <row r="18">
@@ -11446,19 +11446,19 @@
         <v>19768</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12330</v>
+        <v>12854</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30025</v>
+        <v>29675</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04201445064115066</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02620564514066091</v>
+        <v>0.02732032181461881</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0638159045247839</v>
+        <v>0.06307080647308837</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -11467,19 +11467,19 @@
         <v>6076</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2710</v>
+        <v>2321</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11275</v>
+        <v>11135</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03250491170575314</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01449822530850188</v>
+        <v>0.01241620656164915</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06031929651179224</v>
+        <v>0.05956741298543398</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>29</v>
@@ -11488,19 +11488,19 @@
         <v>25844</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>17530</v>
+        <v>17775</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>36292</v>
+        <v>38068</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03931063428993025</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02666399819092431</v>
+        <v>0.02703760171927478</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05520360536288509</v>
+        <v>0.05790559890235451</v>
       </c>
     </row>
     <row r="19">
@@ -11517,19 +11517,19 @@
         <v>131976</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>110915</v>
+        <v>110616</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>155733</v>
+        <v>155191</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.2805007512339212</v>
+        <v>0.2805007512339213</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2357375656949548</v>
+        <v>0.2351035798020102</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.330995206493051</v>
+        <v>0.3298436596231304</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -11538,19 +11538,19 @@
         <v>39501</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30437</v>
+        <v>29663</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51788</v>
+        <v>51174</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2113212518589617</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1628304418015492</v>
+        <v>0.1586911631919263</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2770537807129678</v>
+        <v>0.2737704791425349</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>160</v>
@@ -11559,19 +11559,19 @@
         <v>171476</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>147633</v>
+        <v>148042</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>195074</v>
+        <v>196391</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2608311686337592</v>
+        <v>0.2608311686337593</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2245628883328389</v>
+        <v>0.2251855449748262</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2967256225757486</v>
+        <v>0.2987289957251558</v>
       </c>
     </row>
     <row r="20">
@@ -11588,19 +11588,19 @@
         <v>272487</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>249605</v>
+        <v>249367</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>299018</v>
+        <v>293462</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.579143108131392</v>
+        <v>0.5791431081313921</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5305101285477013</v>
+        <v>0.5300050422655346</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6355331625454511</v>
+        <v>0.6237237004078845</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>159</v>
@@ -11609,19 +11609,19 @@
         <v>101038</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>89743</v>
+        <v>88229</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111956</v>
+        <v>113328</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.54053413810617</v>
+        <v>0.5405341381061699</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4801075308784459</v>
+        <v>0.472005654789484</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5989440936345011</v>
+        <v>0.6062842914513534</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>458</v>
@@ -11630,19 +11630,19 @@
         <v>373525</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>349319</v>
+        <v>347432</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>399260</v>
+        <v>399416</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.5681655449532873</v>
+        <v>0.5681655449532872</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5313454219580358</v>
+        <v>0.5284761471920953</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6073111069307241</v>
+        <v>0.6075475446766524</v>
       </c>
     </row>
     <row r="21">
@@ -11734,19 +11734,19 @@
         <v>65118</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52712</v>
+        <v>53312</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80661</v>
+        <v>80445</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.05759025772479211</v>
+        <v>0.05759025772479213</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04661863809982723</v>
+        <v>0.04714878083520749</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07133654572061419</v>
+        <v>0.07114600948878325</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>137</v>
@@ -11755,19 +11755,19 @@
         <v>73370</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61338</v>
+        <v>61567</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>84736</v>
+        <v>86019</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.08542101822451896</v>
+        <v>0.08542101822451895</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07141274911304743</v>
+        <v>0.07168002674180543</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09865464509805227</v>
+        <v>0.1001478109972064</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>229</v>
@@ -11776,19 +11776,19 @@
         <v>138488</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>117935</v>
+        <v>119911</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>155381</v>
+        <v>157480</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06960475174987878</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05927499395562989</v>
+        <v>0.06026811327122925</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07809543977714246</v>
+        <v>0.07915026201505806</v>
       </c>
     </row>
     <row r="23">
@@ -11805,19 +11805,19 @@
         <v>47389</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>36308</v>
+        <v>35297</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>61220</v>
+        <v>61864</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.04191108926011269</v>
+        <v>0.0419110892601127</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03211069677793583</v>
+        <v>0.03121631774263306</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05414310867657519</v>
+        <v>0.05471274092436625</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>82</v>
@@ -11826,19 +11826,19 @@
         <v>56962</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>45008</v>
+        <v>45853</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>69450</v>
+        <v>71034</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06631846247651248</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05240109880521088</v>
+        <v>0.05338427945153237</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08085742445309212</v>
+        <v>0.08270195286666797</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>132</v>
@@ -11847,19 +11847,19 @@
         <v>104351</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>87631</v>
+        <v>87184</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>125482</v>
+        <v>125276</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05244771256508396</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04404406478600228</v>
+        <v>0.04381911112984824</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06306816268076401</v>
+        <v>0.06296452790308944</v>
       </c>
     </row>
     <row r="24">
@@ -11876,19 +11876,19 @@
         <v>34646</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25142</v>
+        <v>24214</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>48748</v>
+        <v>46800</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.03064136759895258</v>
+        <v>0.03064136759895259</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02223570632254442</v>
+        <v>0.02141464598806187</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04311285897869989</v>
+        <v>0.04138970648403229</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>61</v>
@@ -11897,19 +11897,19 @@
         <v>38499</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28681</v>
+        <v>30275</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49205</v>
+        <v>49539</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.044822265082392</v>
+        <v>0.04482226508239201</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03339141421672805</v>
+        <v>0.03524807237140379</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05728754053538036</v>
+        <v>0.05767573437579544</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>98</v>
@@ -11918,19 +11918,19 @@
         <v>73145</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>58840</v>
+        <v>60287</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>88249</v>
+        <v>91578</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03676323796921508</v>
+        <v>0.03676323796921507</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02957329956356936</v>
+        <v>0.03030066827283399</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04435471316761622</v>
+        <v>0.04602755047494263</v>
       </c>
     </row>
     <row r="25">
@@ -11947,19 +11947,19 @@
         <v>388085</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>349658</v>
+        <v>351221</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>424437</v>
+        <v>427809</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3432230282513759</v>
+        <v>0.343223028251376</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3092375439011197</v>
+        <v>0.3106199361141054</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3753725995117097</v>
+        <v>0.3783548343605342</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>278</v>
@@ -11968,19 +11968,19 @@
         <v>254022</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>231327</v>
+        <v>229423</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>281307</v>
+        <v>280177</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2957463372283734</v>
+        <v>0.2957463372283733</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2693232851295878</v>
+        <v>0.2671066603230661</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3275132832799131</v>
+        <v>0.3261970724374316</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>560</v>
@@ -11989,19 +11989,19 @@
         <v>642108</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>597745</v>
+        <v>600398</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>689159</v>
+        <v>689232</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3227274179847306</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3004304627053118</v>
+        <v>0.30176391602738</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3463756772846875</v>
+        <v>0.3464126602963641</v>
       </c>
     </row>
     <row r="26">
@@ -12018,19 +12018,19 @@
         <v>595470</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>558344</v>
+        <v>558467</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>633204</v>
+        <v>629445</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5266342571647665</v>
+        <v>0.5266342571647666</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4937998448483426</v>
+        <v>0.4939085804370345</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5600058470124715</v>
+        <v>0.5566815636630159</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>668</v>
@@ -12039,19 +12039,19 @@
         <v>436066</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>408659</v>
+        <v>412164</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>461413</v>
+        <v>463429</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5076919169882032</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4757826884645313</v>
+        <v>0.4798632153185533</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5372018178433184</v>
+        <v>0.5395496501525671</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1324</v>
@@ -12060,19 +12060,19 @@
         <v>1031536</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>981795</v>
+        <v>982848</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1076403</v>
+        <v>1074028</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5184568797310917</v>
+        <v>0.5184568797310916</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4934567952439718</v>
+        <v>0.4939860488832906</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5410071663335759</v>
+        <v>0.5398136123023513</v>
       </c>
     </row>
     <row r="27">
@@ -12164,19 +12164,19 @@
         <v>32119</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23787</v>
+        <v>23573</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42282</v>
+        <v>42741</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.05674027383423839</v>
+        <v>0.0567402738342384</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04202071294567774</v>
+        <v>0.04164358424268252</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07469361806933418</v>
+        <v>0.07550386815851491</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>292</v>
@@ -12185,19 +12185,19 @@
         <v>150055</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>132757</v>
+        <v>134251</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>166338</v>
+        <v>166551</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.181223200007843</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1603327746441669</v>
+        <v>0.1621363229750085</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2008881400337863</v>
+        <v>0.2011458411256721</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>339</v>
@@ -12206,19 +12206,19 @@
         <v>182174</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>162106</v>
+        <v>164344</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>202239</v>
+        <v>202243</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1306765460180317</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1162811865850156</v>
+        <v>0.1178866002926669</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1450699047220208</v>
+        <v>0.1450721587699985</v>
       </c>
     </row>
     <row r="29">
@@ -12235,19 +12235,19 @@
         <v>25853</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17100</v>
+        <v>17425</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>35649</v>
+        <v>38282</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.04567039531597091</v>
+        <v>0.04567039531597092</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03020806622100533</v>
+        <v>0.0307823794407847</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06297641495873582</v>
+        <v>0.06762817820294624</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>71</v>
@@ -12256,19 +12256,19 @@
         <v>46249</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>36039</v>
+        <v>36454</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>57800</v>
+        <v>56469</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05585515600747323</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04352523515386869</v>
+        <v>0.04402616806256671</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06980585050316104</v>
+        <v>0.06819853202420065</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>99</v>
@@ -12277,19 +12277,19 @@
         <v>72101</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>58916</v>
+        <v>57653</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>87558</v>
+        <v>87508</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05171960432607679</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04226121285558822</v>
+        <v>0.04135565837688557</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06280704868545788</v>
+        <v>0.06277108637638328</v>
       </c>
     </row>
     <row r="30">
@@ -12306,19 +12306,19 @@
         <v>14121</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>8016</v>
+        <v>8129</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>23265</v>
+        <v>23161</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.02494558515701934</v>
+        <v>0.02494558515701935</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01416071363396874</v>
+        <v>0.01436022836731746</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04109984629492394</v>
+        <v>0.04091623742201239</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>64</v>
@@ -12327,19 +12327,19 @@
         <v>46875</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>36063</v>
+        <v>36038</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>60363</v>
+        <v>59664</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05661146758408134</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04355401258486126</v>
+        <v>0.04352336950581543</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07290105409711059</v>
+        <v>0.07205666041411504</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>78</v>
@@ -12348,19 +12348,19 @@
         <v>60996</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>47102</v>
+        <v>49238</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>77046</v>
+        <v>77003</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04375344398580462</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03378708064441829</v>
+        <v>0.03531904314844755</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05526678053310128</v>
+        <v>0.05523569025513133</v>
       </c>
     </row>
     <row r="31">
@@ -12377,19 +12377,19 @@
         <v>229143</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>203167</v>
+        <v>203969</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>256527</v>
+        <v>256923</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4047954369213375</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3589068901547173</v>
+        <v>0.360324767798761</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4531713881237842</v>
+        <v>0.4538700643108662</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>183</v>
@@ -12398,19 +12398,19 @@
         <v>151661</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>131188</v>
+        <v>131887</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>172618</v>
+        <v>172651</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1831630541470635</v>
+        <v>0.1831630541470634</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1584375311121514</v>
+        <v>0.1592819249670426</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2084730008450518</v>
+        <v>0.2085128940628801</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>359</v>
@@ -12419,19 +12419,19 @@
         <v>380804</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>347462</v>
+        <v>346430</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>418346</v>
+        <v>418344</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2731575273602427</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2492404668823291</v>
+        <v>0.2484999545514261</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3000866648459507</v>
+        <v>0.3000853363773966</v>
       </c>
     </row>
     <row r="32">
@@ -12448,19 +12448,19 @@
         <v>264835</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>239655</v>
+        <v>240087</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>290112</v>
+        <v>290087</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4678483087714337</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4233649925711155</v>
+        <v>0.4241290373708723</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5125006927970459</v>
+        <v>0.5124564387188558</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>675</v>
@@ -12469,19 +12469,19 @@
         <v>433172</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>409685</v>
+        <v>407907</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>460577</v>
+        <v>456178</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.523147122253539</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4947820238920064</v>
+        <v>0.4926345556818564</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5562450981991848</v>
+        <v>0.5509327321681268</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>955</v>
@@ -12490,19 +12490,19 @@
         <v>698007</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>661558</v>
+        <v>661970</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>731897</v>
+        <v>732004</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5006928783098441</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4745472406664212</v>
+        <v>0.4748429513802417</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5250021392389808</v>
+        <v>0.5250792475818092</v>
       </c>
     </row>
     <row r="33">
@@ -12607,19 +12607,19 @@
         <v>203157</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>181682</v>
+        <v>182874</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>222775</v>
+        <v>226982</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2408248752692906</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2153673712917971</v>
+        <v>0.2167811681559035</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2640801285495568</v>
+        <v>0.2690665173670477</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>366</v>
@@ -12628,19 +12628,19 @@
         <v>203158</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>181371</v>
+        <v>183151</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>223531</v>
+        <v>227261</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.1879664465403775</v>
+        <v>0.1879664465403776</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1678090230375927</v>
+        <v>0.1694560881094472</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2068168937660098</v>
+        <v>0.2102680550760448</v>
       </c>
     </row>
     <row r="35">
@@ -12670,19 +12670,19 @@
         <v>8358</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4783</v>
+        <v>4666</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>14243</v>
+        <v>14099</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.00990716525285386</v>
+        <v>0.009907165252853858</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.005669807317403142</v>
+        <v>0.005531100998948518</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0168837736948888</v>
+        <v>0.01671343993117168</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>13</v>
@@ -12691,19 +12691,19 @@
         <v>8358</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>4709</v>
+        <v>4564</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14068</v>
+        <v>13967</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.007732650731303863</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.004357029339171307</v>
+        <v>0.004222570452781246</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.01301618824151992</v>
+        <v>0.01292296307588783</v>
       </c>
     </row>
     <row r="36">
@@ -12723,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8461</v>
+        <v>7860</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.00851914142900431</v>
@@ -12732,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03566519745925883</v>
+        <v>0.03313452499623781</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>14</v>
@@ -12741,19 +12741,19 @@
         <v>8882</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5099</v>
+        <v>5068</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>15486</v>
+        <v>15041</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01052874932867424</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.006044597554499071</v>
+        <v>0.006007697383769905</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01835755645414035</v>
+        <v>0.01782989175265398</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>16</v>
@@ -12762,19 +12762,19 @@
         <v>10903</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>6236</v>
+        <v>6113</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>18927</v>
+        <v>18687</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01008766235284177</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.005770009166403748</v>
+        <v>0.005655638435110746</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01751178216210742</v>
+        <v>0.01729008887770419</v>
       </c>
     </row>
     <row r="37">
@@ -12791,19 +12791,19 @@
         <v>230944</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>224736</v>
+        <v>223920</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>234594</v>
+        <v>234497</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9735117026899064</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9473402381252788</v>
+        <v>0.9439026837929535</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9888954148818329</v>
+        <v>0.9884878813741844</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>160</v>
@@ -12812,19 +12812,19 @@
         <v>251448</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>223102</v>
+        <v>221174</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>285703</v>
+        <v>284606</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.2980691079423591</v>
+        <v>0.2980691079423592</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2644672250461493</v>
+        <v>0.2621823147209179</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.338675045787717</v>
+        <v>0.3373747710119954</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>264</v>
@@ -12833,19 +12833,19 @@
         <v>482392</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>443954</v>
+        <v>444301</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>523554</v>
+        <v>525869</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.4463213772106909</v>
+        <v>0.446321377210691</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4107569730132459</v>
+        <v>0.4110782600470923</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4844051482935493</v>
+        <v>0.4865469185390005</v>
       </c>
     </row>
     <row r="38">
@@ -12862,19 +12862,19 @@
         <v>4263</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1653</v>
+        <v>1630</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>9599</v>
+        <v>9316</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01796915588108933</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.006968291478710104</v>
+        <v>0.006870419292242407</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.04046190271385557</v>
+        <v>0.03926828963056613</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>605</v>
@@ -12883,19 +12883,19 @@
         <v>371745</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>344618</v>
+        <v>345873</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>399244</v>
+        <v>397811</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>0.4406701022068223</v>
+        <v>0.4406701022068222</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4085133452021144</v>
+        <v>0.4100011377843196</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4732683421897607</v>
+        <v>0.4715687853643348</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>611</v>
@@ -12904,19 +12904,19 @@
         <v>376008</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>343492</v>
+        <v>344601</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>406570</v>
+        <v>406827</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.3478918631647858</v>
+        <v>0.3478918631647859</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3178073037382586</v>
+        <v>0.3188339026257813</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3761683900165506</v>
+        <v>0.3764067410658937</v>
       </c>
     </row>
     <row r="39">
@@ -13008,19 +13008,19 @@
         <v>154318</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>135001</v>
+        <v>134034</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>176674</v>
+        <v>177463</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04491556941894605</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.03929301438538127</v>
+        <v>0.03901163360477339</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05142233125563462</v>
+        <v>0.05165217786073849</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>935</v>
@@ -13029,19 +13029,19 @@
         <v>506172</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>475524</v>
+        <v>475278</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>538755</v>
+        <v>538140</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1396461096299986</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.131190716787925</v>
+        <v>0.1311229583852878</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1486354263347815</v>
+        <v>0.1484655507694694</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1157</v>
@@ -13050,19 +13050,19 @@
         <v>660490</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>619788</v>
+        <v>621634</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>695640</v>
+        <v>700748</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09354833728951063</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08778349524661369</v>
+        <v>0.08804498546296519</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09852683326685496</v>
+        <v>0.09925027450743849</v>
       </c>
     </row>
     <row r="41">
@@ -13079,19 +13079,19 @@
         <v>140833</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>118405</v>
+        <v>117170</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>164075</v>
+        <v>163692</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04099067430149914</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03446282371552469</v>
+        <v>0.03410332381371536</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04775546120823225</v>
+        <v>0.04764381978635508</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>313</v>
@@ -13100,19 +13100,19 @@
         <v>203867</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>182023</v>
+        <v>182246</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>226368</v>
+        <v>229221</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05624424489839073</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.05021779701923083</v>
+        <v>0.0502792214469686</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06245200383264864</v>
+        <v>0.06323898222891791</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>461</v>
@@ -13121,19 +13121,19 @@
         <v>344700</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>312439</v>
+        <v>316256</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>379608</v>
+        <v>377957</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.04882155287965536</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.04425225330080876</v>
+        <v>0.04479279583202667</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05376571379673215</v>
+        <v>0.05353176717150588</v>
       </c>
     </row>
     <row r="42">
@@ -13150,19 +13150,19 @@
         <v>96727</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>77583</v>
+        <v>79917</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>116058</v>
+        <v>118382</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02815325664301622</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.02258127931358342</v>
+        <v>0.02326042366705282</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.03377972965807067</v>
+        <v>0.03445608072943093</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>196</v>
@@ -13171,19 +13171,19 @@
         <v>131957</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>115825</v>
+        <v>112675</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>152731</v>
+        <v>150630</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03640519370986584</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.03195456465249547</v>
+        <v>0.0310856255249559</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.04213632042074779</v>
+        <v>0.0415568403404111</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>298</v>
@@ -13192,19 +13192,19 @@
         <v>228684</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>204692</v>
+        <v>203716</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>253908</v>
+        <v>257028</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.03238963636765946</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02899153479809967</v>
+        <v>0.02885321572350595</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03596224995399157</v>
+        <v>0.03640414089964423</v>
       </c>
     </row>
     <row r="43">
@@ -13221,19 +13221,19 @@
         <v>1292706</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1225366</v>
+        <v>1228681</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1361553</v>
+        <v>1363325</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3762527013399077</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3566529478866616</v>
+        <v>0.3576176181381756</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3962912166252959</v>
+        <v>0.396806885741113</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>975</v>
@@ -13242,19 +13242,19 @@
         <v>960501</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>905875</v>
+        <v>907645</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1013528</v>
+        <v>1014246</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2649895090101716</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2499187206989019</v>
+        <v>0.2504072658944895</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.279618736709084</v>
+        <v>0.2798168900305008</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1891</v>
@@ -13263,19 +13263,19 @@
         <v>2253208</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2167622</v>
+        <v>2164619</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2343181</v>
+        <v>2339822</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3191323999771724</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3070104910954402</v>
+        <v>0.3065851599937191</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3318758098808863</v>
+        <v>0.3313999514437516</v>
       </c>
     </row>
     <row r="44">
@@ -13292,19 +13292,19 @@
         <v>1751154</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1684504</v>
+        <v>1680155</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1817398</v>
+        <v>1811551</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.5096877982966309</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4902888083112546</v>
+        <v>0.489023017356769</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.5289685775780921</v>
+        <v>0.5272666966578801</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2807</v>
@@ -13313,19 +13313,19 @@
         <v>1822179</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1767324</v>
+        <v>1768687</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1874764</v>
+        <v>1875680</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5027149427515732</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4875811416768968</v>
+        <v>0.4879570989905359</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5172224970476184</v>
+        <v>0.517475006573654</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>4712</v>
@@ -13334,19 +13334,19 @@
         <v>3573334</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3484273</v>
+        <v>3480000</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>3652823</v>
+        <v>3656059</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.5061080734860022</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.4934939886807796</v>
+        <v>0.4928888532035932</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.5173664846803172</v>
+        <v>0.5178248799471821</v>
       </c>
     </row>
     <row r="45">
